--- a/Resources/VF_Buyer_Quote_Creation.xlsx
+++ b/Resources/VF_Buyer_Quote_Creation.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\workspace\Veri-Fuel_Hybrid_Framework\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\workspace\VF_Hybrid\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8C5111B1-66C3-4156-A400-DE0B110DA90F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{84D289ED-215A-4B01-9837-14EDE2FF081F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="3" tabRatio="924" windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{9831F71E-EE01-4F26-B61E-B641A39E7885}" yWindow="-108"/>
+    <workbookView activeTab="5" tabRatio="924" windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{9831F71E-EE01-4F26-B61E-B641A39E7885}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="VF_LTL_MF_Quote_Creation_Buyer" r:id="rId1" sheetId="1"/>
     <sheet name="VF_LTL_MF_Seller_Response" r:id="rId2" sheetId="2"/>
     <sheet name="VF_LTL_TW_Quote_Creation_Buyer" r:id="rId3" sheetId="5"/>
     <sheet name="VF_LTL_TW_Seller_Response" r:id="rId4" sheetId="6"/>
-    <sheet name="VF_FTL_Seller_Response" r:id="rId5" sheetId="4"/>
-    <sheet name="VF_FTL_Quote_Creation_Buyer" r:id="rId6" sheetId="3"/>
+    <sheet name="VF_FTL_Quote_Creation_Buyer" r:id="rId5" sheetId="3"/>
+    <sheet name="VF_FTL_Seller_Response" r:id="rId6" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1335">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -7047,6 +7047,540 @@
     <t>0.00</t>
   </si>
   <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Final Total and Ranking Basis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TandC</t>
+    </r>
+  </si>
+  <si>
+    <t>Get Final Toal Value in TandC</t>
+  </si>
+  <si>
+    <t>Get Rankng Basis for Quote in Manage Rounds</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Buyer Calculator Values </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Workbench</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify Stem Time on Workbench</t>
+  </si>
+  <si>
+    <t>Verify Loading Time on Workbench</t>
+  </si>
+  <si>
+    <t>Verify Avg. Fueling Time per Unit (mins) on Workbench</t>
+  </si>
+  <si>
+    <t>Verify # Fueled Units on Workbench</t>
+  </si>
+  <si>
+    <t>Verify Total Time per Del. (mins) on Workbench</t>
+  </si>
+  <si>
+    <t>Verify Avg. Margin &amp; Freight/Del. on Workbench</t>
+  </si>
+  <si>
+    <t>Verify Gross Margin $/Hour on Workbench</t>
+  </si>
+  <si>
+    <t>Verify Distance on Workbench</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery Flat Fee, Freight $/Gal and Margin $/Gal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workbench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $/Del. Or $/Gal and $/Period with Total values </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workbench</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify First Product Cateogry $/Del or $/Gal or $/Period as per Ranking Basis</t>
+  </si>
+  <si>
+    <t>Verify Second Product Cateogry $/Del or $/Gal or $/Period as per Ranking Basis</t>
+  </si>
+  <si>
+    <t>Verify Total value of  $/Del of $/Gal or $/Period as per Ranking Basis</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery Flat Fee, Freight $/Gal and Margin $/Gal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TandC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Awarded Quote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Final Total and Ranking Basis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TandC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Awarded Quote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Buyer Calculator Values </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Workbench</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awarded Quote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery Flat Fee, Freight $/Gal and Margin $/Gal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workbench</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awarded Quote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $/Del. Or $/Gal and $/Period with Total values </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workbench</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awarded Quote</t>
+    </r>
+  </si>
+  <si>
+    <t>LTL (Tankwagon)</t>
+  </si>
+  <si>
+    <t>Quote7</t>
+  </si>
+  <si>
+    <t>Quote8</t>
+  </si>
+  <si>
+    <t>Quote9</t>
+  </si>
+  <si>
+    <t>Rfpviewmodel_LTLservice_0__IsSelected</t>
+  </si>
+  <si>
+    <t>Rfpviewmodel_LTLservice_11__IsSelected</t>
+  </si>
+  <si>
+    <t>LTL-Tankwagon</t>
+  </si>
+  <si>
+    <t>Truck Pump Rate</t>
+  </si>
+  <si>
+    <t>76.37</t>
+  </si>
+  <si>
+    <t>7.3838</t>
+  </si>
+  <si>
+    <t>7.2738</t>
+  </si>
+  <si>
+    <t>738,375.00</t>
+  </si>
+  <si>
+    <t>436,425.00</t>
+  </si>
+  <si>
+    <t>205.56</t>
+  </si>
+  <si>
+    <t>7.3425</t>
+  </si>
+  <si>
+    <t>129.20</t>
+  </si>
+  <si>
+    <t>1174800.00</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1,174,800.00</t>
+  </si>
+  <si>
     <t>0.0287</t>
   </si>
   <si>
@@ -7131,538 +7665,7 @@
     <t>15,625.06</t>
   </si>
   <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Final Total and Ranking Basis</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TandC</t>
-    </r>
-  </si>
-  <si>
-    <t>Get Final Toal Value in TandC</t>
-  </si>
-  <si>
-    <t>Get Rankng Basis for Quote in Manage Rounds</t>
-  </si>
-  <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Buyer Calculator Values </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Workbench</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify Stem Time on Workbench</t>
-  </si>
-  <si>
-    <t>Verify Loading Time on Workbench</t>
-  </si>
-  <si>
-    <t>Verify Avg. Fueling Time per Unit (mins) on Workbench</t>
-  </si>
-  <si>
-    <t>Verify # Fueled Units on Workbench</t>
-  </si>
-  <si>
-    <t>Verify Total Time per Del. (mins) on Workbench</t>
-  </si>
-  <si>
-    <t>Verify Avg. Margin &amp; Freight/Del. on Workbench</t>
-  </si>
-  <si>
-    <t>Verify Gross Margin $/Hour on Workbench</t>
-  </si>
-  <si>
-    <t>Verify Distance on Workbench</t>
-  </si>
-  <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Delivery Flat Fee, Freight $/Gal and Margin $/Gal</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Workbench</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> $/Del. Or $/Gal and $/Period with Total values </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Workbench</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify First Product Cateogry $/Del or $/Gal or $/Period as per Ranking Basis</t>
-  </si>
-  <si>
-    <t>Verify Second Product Cateogry $/Del or $/Gal or $/Period as per Ranking Basis</t>
-  </si>
-  <si>
-    <t>Verify Total value of  $/Del of $/Gal or $/Period as per Ranking Basis</t>
-  </si>
-  <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Delivery Flat Fee, Freight $/Gal and Margin $/Gal</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TandC </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Awarded Quote</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Final Total and Ranking Basis</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TandC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for Awarded Quote</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Buyer Calculator Values </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Workbench</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awarded Quote</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Delivery Flat Fee, Freight $/Gal and Margin $/Gal</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Workbench</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awarded Quote</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> $/Del. Or $/Gal and $/Period with Total values </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Workbench</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awarded Quote</t>
-    </r>
-  </si>
-  <si>
-    <t>LTL (Tankwagon)</t>
-  </si>
-  <si>
-    <t>Quote7</t>
-  </si>
-  <si>
-    <t>Quote8</t>
-  </si>
-  <si>
-    <t>Quote9</t>
-  </si>
-  <si>
-    <t>Rfpviewmodel_LTLservice_0__IsSelected</t>
-  </si>
-  <si>
-    <t>Rfpviewmodel_LTLservice_11__IsSelected</t>
-  </si>
-  <si>
-    <t>LTL-Tankwagon</t>
-  </si>
-  <si>
-    <t>Truck Pump Rate</t>
-  </si>
-  <si>
-    <t>76.37</t>
-  </si>
-  <si>
-    <t>7.3838</t>
-  </si>
-  <si>
-    <t>7.2738</t>
-  </si>
-  <si>
-    <t>738,375.00</t>
-  </si>
-  <si>
-    <t>436,425.00</t>
-  </si>
-  <si>
-    <t>205.56</t>
-  </si>
-  <si>
-    <t>7.3425</t>
-  </si>
-  <si>
-    <t>129.20</t>
-  </si>
-  <si>
-    <t>1174800.00</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1,174,800.00</t>
+    <t>1900</t>
   </si>
 </sst>
 </file>
@@ -7816,7 +7819,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -7918,7 +7921,6 @@
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -12793,7 +12795,7 @@
         <v>29</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>1293</v>
+        <v>1265</v>
       </c>
     </row>
     <row customHeight="1" ht="26.4" r="112" spans="2:7" x14ac:dyDescent="0.3">
@@ -12804,7 +12806,7 @@
         <v>30</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1294</v>
+        <v>1266</v>
       </c>
       <c r="G112" s="13"/>
     </row>
@@ -12816,7 +12818,7 @@
         <v>31</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1295</v>
+        <v>1267</v>
       </c>
     </row>
     <row customHeight="1" ht="34.799999999999997" r="114" spans="2:7" x14ac:dyDescent="0.3">
@@ -12838,7 +12840,7 @@
         <v>33</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>1296</v>
+        <v>1268</v>
       </c>
     </row>
     <row customHeight="1" ht="26.4" r="116" spans="2:7" x14ac:dyDescent="0.3">
@@ -12849,7 +12851,7 @@
         <v>34</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="117" spans="2:7" x14ac:dyDescent="0.3">
@@ -12860,7 +12862,7 @@
         <v>35</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1298</v>
+        <v>1270</v>
       </c>
     </row>
     <row customHeight="1" ht="33.6" r="118" spans="2:7" x14ac:dyDescent="0.3">
@@ -12871,7 +12873,7 @@
         <v>36</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1299</v>
+        <v>1271</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="119" spans="2:7" x14ac:dyDescent="0.3">
@@ -12882,7 +12884,7 @@
         <v>37</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1300</v>
+        <v>1272</v>
       </c>
     </row>
     <row customHeight="1" ht="33.6" r="120" spans="2:7" x14ac:dyDescent="0.3">
@@ -12893,7 +12895,7 @@
         <v>38</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1301</v>
+        <v>1273</v>
       </c>
     </row>
     <row customHeight="1" ht="31.8" r="121" spans="2:7" x14ac:dyDescent="0.3">
@@ -12904,7 +12906,7 @@
         <v>39</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1302</v>
+        <v>1274</v>
       </c>
       <c r="G121"/>
     </row>
@@ -12916,7 +12918,7 @@
         <v>40</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1303</v>
+        <v>1275</v>
       </c>
     </row>
     <row customHeight="1" ht="21" r="123" spans="2:7" x14ac:dyDescent="0.3">
@@ -12927,7 +12929,7 @@
         <v>41</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1304</v>
+        <v>1276</v>
       </c>
     </row>
     <row ht="43.2" r="124" spans="2:7" x14ac:dyDescent="0.3">
@@ -12938,7 +12940,7 @@
         <v>42</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>1305</v>
+        <v>1277</v>
       </c>
     </row>
     <row ht="28.8" r="125" spans="2:7" x14ac:dyDescent="0.3">
@@ -13004,7 +13006,7 @@
         <v>48</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1306</v>
+        <v>1278</v>
       </c>
     </row>
     <row ht="43.2" r="131" spans="2:5" x14ac:dyDescent="0.3">
@@ -13015,7 +13017,7 @@
         <v>49</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1307</v>
+        <v>1279</v>
       </c>
     </row>
     <row ht="43.2" r="132" spans="2:5" x14ac:dyDescent="0.3">
@@ -13026,7 +13028,7 @@
         <v>50</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1308</v>
+        <v>1280</v>
       </c>
       <c r="E132" s="5"/>
     </row>
@@ -13038,7 +13040,7 @@
         <v>51</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1309</v>
+        <v>1281</v>
       </c>
     </row>
     <row customHeight="1" ht="18.600000000000001" r="134" spans="2:5" x14ac:dyDescent="0.3">
@@ -13171,7 +13173,7 @@
         <v>63</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>1310</v>
+        <v>1282</v>
       </c>
     </row>
     <row ht="28.8" r="146" spans="2:5" x14ac:dyDescent="0.3">
@@ -13237,7 +13239,7 @@
         <v>69</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>1311</v>
+        <v>1283</v>
       </c>
     </row>
     <row ht="28.8" r="152" spans="2:5" x14ac:dyDescent="0.3">
@@ -13248,7 +13250,7 @@
         <v>70</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1294</v>
+        <v>1266</v>
       </c>
     </row>
     <row ht="28.8" r="153" spans="2:5" x14ac:dyDescent="0.3">
@@ -13259,7 +13261,7 @@
         <v>71</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1295</v>
+        <v>1267</v>
       </c>
     </row>
     <row ht="28.8" r="154" spans="2:5" x14ac:dyDescent="0.3">
@@ -13282,7 +13284,7 @@
         <v>73</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>1312</v>
+        <v>1284</v>
       </c>
       <c r="E155" s="5"/>
     </row>
@@ -13294,7 +13296,7 @@
         <v>74</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
     </row>
     <row ht="28.8" r="157" spans="2:5" x14ac:dyDescent="0.3">
@@ -13305,7 +13307,7 @@
         <v>75</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1298</v>
+        <v>1270</v>
       </c>
     </row>
     <row ht="28.8" r="158" spans="2:5" x14ac:dyDescent="0.3">
@@ -13316,7 +13318,7 @@
         <v>76</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1299</v>
+        <v>1271</v>
       </c>
     </row>
     <row ht="28.8" r="159" spans="2:5" x14ac:dyDescent="0.3">
@@ -13327,7 +13329,7 @@
         <v>77</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1300</v>
+        <v>1272</v>
       </c>
     </row>
     <row ht="28.8" r="160" spans="2:5" x14ac:dyDescent="0.3">
@@ -13338,7 +13340,7 @@
         <v>78</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1301</v>
+        <v>1273</v>
       </c>
     </row>
     <row ht="28.8" r="161" spans="2:4" x14ac:dyDescent="0.3">
@@ -13349,7 +13351,7 @@
         <v>79</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1302</v>
+        <v>1274</v>
       </c>
     </row>
     <row ht="28.8" r="162" spans="2:4" x14ac:dyDescent="0.3">
@@ -13360,7 +13362,7 @@
         <v>80</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1303</v>
+        <v>1275</v>
       </c>
     </row>
     <row ht="28.8" r="163" spans="2:4" x14ac:dyDescent="0.3">
@@ -13371,7 +13373,7 @@
         <v>81</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1304</v>
+        <v>1276</v>
       </c>
     </row>
     <row ht="43.2" r="164" spans="2:4" x14ac:dyDescent="0.3">
@@ -13382,7 +13384,7 @@
         <v>82</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>1313</v>
+        <v>1285</v>
       </c>
     </row>
     <row ht="28.8" r="165" spans="2:4" x14ac:dyDescent="0.3">
@@ -13448,7 +13450,7 @@
         <v>88</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>1314</v>
+        <v>1286</v>
       </c>
     </row>
     <row ht="43.2" r="171" spans="2:4" x14ac:dyDescent="0.3">
@@ -13459,7 +13461,7 @@
         <v>89</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1307</v>
+        <v>1279</v>
       </c>
     </row>
     <row ht="43.2" r="172" spans="2:4" x14ac:dyDescent="0.3">
@@ -13470,7 +13472,7 @@
         <v>90</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1308</v>
+        <v>1280</v>
       </c>
     </row>
     <row ht="43.2" r="173" spans="2:4" x14ac:dyDescent="0.3">
@@ -13481,7 +13483,7 @@
         <v>91</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1309</v>
+        <v>1281</v>
       </c>
     </row>
     <row ht="28.8" r="174" spans="2:4" x14ac:dyDescent="0.3">
@@ -14458,7 +14460,7 @@
         <v>400</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>1315</v>
+        <v>1287</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="2" spans="2:10" x14ac:dyDescent="0.3">
@@ -14668,13 +14670,13 @@
         <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1316</v>
+        <v>1288</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1317</v>
+        <v>1289</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1318</v>
+        <v>1290</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -14752,13 +14754,13 @@
         <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1321</v>
+        <v>1293</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1321</v>
+        <v>1293</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1321</v>
+        <v>1293</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -15249,13 +15251,13 @@
         <v>232</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1319</v>
+        <v>1291</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1319</v>
+        <v>1291</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1319</v>
+        <v>1291</v>
       </c>
       <c r="J46" s="2"/>
     </row>
@@ -15270,13 +15272,13 @@
         <v>233</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1320</v>
+        <v>1292</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1320</v>
+        <v>1292</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1320</v>
+        <v>1292</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -16649,8 +16651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACBAE30-40A3-4AF0-B57F-9A72873CD9EC}">
   <dimension ref="B1:K398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16682,7 +16684,7 @@
         <v>400</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>1315</v>
+        <v>1287</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="2" spans="2:10" x14ac:dyDescent="0.3">
@@ -16892,13 +16894,13 @@
         <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1316</v>
+        <v>1288</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1317</v>
+        <v>1289</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1318</v>
+        <v>1290</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -17322,13 +17324,13 @@
         <v>1201</v>
       </c>
       <c r="E37" t="s">
-        <v>1330</v>
+        <v>1302</v>
       </c>
       <c r="F37" t="s">
-        <v>1330</v>
+        <v>1302</v>
       </c>
       <c r="G37" t="s">
-        <v>1330</v>
+        <v>1302</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -17343,13 +17345,13 @@
         <v>1202</v>
       </c>
       <c r="E38" t="s">
-        <v>1323</v>
+        <v>1295</v>
       </c>
       <c r="F38" t="s">
-        <v>1323</v>
+        <v>1295</v>
       </c>
       <c r="G38" t="s">
-        <v>1323</v>
+        <v>1295</v>
       </c>
       <c r="J38" s="2"/>
     </row>
@@ -17364,13 +17366,13 @@
         <v>1203</v>
       </c>
       <c r="E39" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
       <c r="F39" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
       <c r="G39" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
       <c r="J39" s="2"/>
     </row>
@@ -17385,13 +17387,13 @@
         <v>1204</v>
       </c>
       <c r="E40" t="s">
-        <v>1325</v>
+        <v>1297</v>
       </c>
       <c r="F40" t="s">
-        <v>1325</v>
+        <v>1297</v>
       </c>
       <c r="G40" t="s">
-        <v>1325</v>
+        <v>1297</v>
       </c>
       <c r="J40" s="2"/>
     </row>
@@ -17406,13 +17408,13 @@
         <v>1205</v>
       </c>
       <c r="E41" t="s">
-        <v>1326</v>
+        <v>1298</v>
       </c>
       <c r="F41" t="s">
-        <v>1326</v>
+        <v>1298</v>
       </c>
       <c r="G41" t="s">
-        <v>1326</v>
+        <v>1298</v>
       </c>
       <c r="J41" s="2"/>
     </row>
@@ -17427,13 +17429,13 @@
         <v>1206</v>
       </c>
       <c r="E42" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
       <c r="F42" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
       <c r="G42" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
       <c r="J42" s="2"/>
     </row>
@@ -17571,13 +17573,13 @@
         <v>1214</v>
       </c>
       <c r="E52" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="F52" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="G52" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="2"/>
     </row>
@@ -17615,13 +17617,13 @@
         <v>1218</v>
       </c>
       <c r="E55" t="s">
-        <v>1329</v>
+        <v>1301</v>
       </c>
       <c r="F55" t="s">
-        <v>1329</v>
+        <v>1301</v>
       </c>
       <c r="G55" t="s">
-        <v>1329</v>
+        <v>1301</v>
       </c>
       <c r="J55" s="2"/>
     </row>
@@ -17664,13 +17666,13 @@
         <v>1219</v>
       </c>
       <c r="E58" t="s">
-        <v>1331</v>
+        <v>1303</v>
       </c>
       <c r="F58" t="s">
-        <v>1331</v>
+        <v>1303</v>
       </c>
       <c r="G58" t="s">
-        <v>1331</v>
+        <v>1303</v>
       </c>
       <c r="J58" s="2"/>
     </row>
@@ -17696,7 +17698,7 @@
         <v>61</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1322</v>
+        <v>1294</v>
       </c>
       <c r="E60" t="s">
         <v>1257</v>
@@ -17783,13 +17785,13 @@
         <v>1235</v>
       </c>
       <c r="E64" t="s">
-        <v>1332</v>
+        <v>1304</v>
       </c>
       <c r="F64" t="s">
-        <v>1332</v>
+        <v>1304</v>
       </c>
       <c r="G64" t="s">
-        <v>1332</v>
+        <v>1304</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -17825,13 +17827,13 @@
         <v>1237</v>
       </c>
       <c r="E66" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="F66" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="G66" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="J66" s="2"/>
     </row>
@@ -17916,13 +17918,13 @@
         <v>1225</v>
       </c>
       <c r="E71" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="F71" t="s">
-        <v>1329</v>
+        <v>1301</v>
       </c>
       <c r="G71" t="s">
-        <v>1331</v>
+        <v>1303</v>
       </c>
       <c r="J71" s="2"/>
     </row>
@@ -17978,13 +17980,13 @@
         <v>1226</v>
       </c>
       <c r="E75" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="F75" t="s">
-        <v>1329</v>
+        <v>1301</v>
       </c>
       <c r="G75" t="s">
-        <v>1333</v>
+        <v>1305</v>
       </c>
     </row>
     <row customHeight="1" ht="39" r="76" spans="2:10" x14ac:dyDescent="0.3">
@@ -18137,7 +18139,7 @@
         <v>400</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>1315</v>
+        <v>1287</v>
       </c>
     </row>
     <row customHeight="1" ht="26.4" r="88" spans="2:7" x14ac:dyDescent="0.3">
@@ -18503,7 +18505,7 @@
         <v>29</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>1293</v>
+        <v>1265</v>
       </c>
     </row>
     <row customHeight="1" ht="26.4" r="113" spans="2:7" x14ac:dyDescent="0.3">
@@ -18514,7 +18516,7 @@
         <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1294</v>
+        <v>1266</v>
       </c>
       <c r="G113" s="13"/>
     </row>
@@ -18526,7 +18528,7 @@
         <v>31</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1295</v>
+        <v>1267</v>
       </c>
     </row>
     <row customHeight="1" ht="34.799999999999997" r="115" spans="2:7" x14ac:dyDescent="0.3">
@@ -18548,7 +18550,7 @@
         <v>33</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>1296</v>
+        <v>1268</v>
       </c>
     </row>
     <row customHeight="1" ht="26.4" r="117" spans="2:7" x14ac:dyDescent="0.3">
@@ -18559,7 +18561,7 @@
         <v>34</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="118" spans="2:7" x14ac:dyDescent="0.3">
@@ -18570,7 +18572,7 @@
         <v>35</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1298</v>
+        <v>1270</v>
       </c>
     </row>
     <row customHeight="1" ht="33.6" r="119" spans="2:7" x14ac:dyDescent="0.3">
@@ -18581,7 +18583,7 @@
         <v>36</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1299</v>
+        <v>1271</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="120" spans="2:7" x14ac:dyDescent="0.3">
@@ -18592,7 +18594,7 @@
         <v>37</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1300</v>
+        <v>1272</v>
       </c>
     </row>
     <row customHeight="1" ht="33.6" r="121" spans="2:7" x14ac:dyDescent="0.3">
@@ -18603,7 +18605,7 @@
         <v>38</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1301</v>
+        <v>1273</v>
       </c>
     </row>
     <row customHeight="1" ht="31.8" r="122" spans="2:7" x14ac:dyDescent="0.3">
@@ -18614,7 +18616,7 @@
         <v>39</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1302</v>
+        <v>1274</v>
       </c>
       <c r="G122"/>
     </row>
@@ -18626,7 +18628,7 @@
         <v>40</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1303</v>
+        <v>1275</v>
       </c>
     </row>
     <row customHeight="1" ht="21" r="124" spans="2:7" x14ac:dyDescent="0.3">
@@ -18637,7 +18639,7 @@
         <v>41</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1304</v>
+        <v>1276</v>
       </c>
     </row>
     <row ht="43.2" r="125" spans="2:7" x14ac:dyDescent="0.3">
@@ -18648,7 +18650,7 @@
         <v>42</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>1305</v>
+        <v>1277</v>
       </c>
     </row>
     <row ht="28.8" r="126" spans="2:7" x14ac:dyDescent="0.3">
@@ -18714,7 +18716,7 @@
         <v>48</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1306</v>
+        <v>1278</v>
       </c>
     </row>
     <row ht="43.2" r="132" spans="2:5" x14ac:dyDescent="0.3">
@@ -18725,7 +18727,7 @@
         <v>49</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1307</v>
+        <v>1279</v>
       </c>
     </row>
     <row ht="43.2" r="133" spans="2:5" x14ac:dyDescent="0.3">
@@ -18736,7 +18738,7 @@
         <v>50</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1308</v>
+        <v>1280</v>
       </c>
       <c r="E133" s="5"/>
     </row>
@@ -18748,7 +18750,7 @@
         <v>51</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1309</v>
+        <v>1281</v>
       </c>
     </row>
     <row customHeight="1" ht="18.600000000000001" r="135" spans="2:5" x14ac:dyDescent="0.3">
@@ -18881,7 +18883,7 @@
         <v>63</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1310</v>
+        <v>1282</v>
       </c>
     </row>
     <row ht="28.8" r="147" spans="2:5" x14ac:dyDescent="0.3">
@@ -18947,7 +18949,7 @@
         <v>69</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>1311</v>
+        <v>1283</v>
       </c>
     </row>
     <row ht="28.8" r="153" spans="2:5" x14ac:dyDescent="0.3">
@@ -18958,7 +18960,7 @@
         <v>70</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1294</v>
+        <v>1266</v>
       </c>
     </row>
     <row ht="28.8" r="154" spans="2:5" x14ac:dyDescent="0.3">
@@ -18969,7 +18971,7 @@
         <v>71</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1295</v>
+        <v>1267</v>
       </c>
     </row>
     <row ht="28.8" r="155" spans="2:5" x14ac:dyDescent="0.3">
@@ -18992,7 +18994,7 @@
         <v>73</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>1312</v>
+        <v>1284</v>
       </c>
       <c r="E156" s="5"/>
     </row>
@@ -19004,7 +19006,7 @@
         <v>74</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
     </row>
     <row ht="28.8" r="158" spans="2:5" x14ac:dyDescent="0.3">
@@ -19015,7 +19017,7 @@
         <v>75</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1298</v>
+        <v>1270</v>
       </c>
     </row>
     <row ht="28.8" r="159" spans="2:5" x14ac:dyDescent="0.3">
@@ -19026,7 +19028,7 @@
         <v>76</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1299</v>
+        <v>1271</v>
       </c>
     </row>
     <row ht="28.8" r="160" spans="2:5" x14ac:dyDescent="0.3">
@@ -19037,7 +19039,7 @@
         <v>77</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1300</v>
+        <v>1272</v>
       </c>
     </row>
     <row ht="28.8" r="161" spans="2:4" x14ac:dyDescent="0.3">
@@ -19048,7 +19050,7 @@
         <v>78</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1301</v>
+        <v>1273</v>
       </c>
     </row>
     <row ht="28.8" r="162" spans="2:4" x14ac:dyDescent="0.3">
@@ -19059,7 +19061,7 @@
         <v>79</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1302</v>
+        <v>1274</v>
       </c>
     </row>
     <row ht="28.8" r="163" spans="2:4" x14ac:dyDescent="0.3">
@@ -19070,7 +19072,7 @@
         <v>80</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1303</v>
+        <v>1275</v>
       </c>
     </row>
     <row ht="28.8" r="164" spans="2:4" x14ac:dyDescent="0.3">
@@ -19081,7 +19083,7 @@
         <v>81</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1304</v>
+        <v>1276</v>
       </c>
     </row>
     <row ht="43.2" r="165" spans="2:4" x14ac:dyDescent="0.3">
@@ -19092,7 +19094,7 @@
         <v>82</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>1313</v>
+        <v>1285</v>
       </c>
     </row>
     <row ht="28.8" r="166" spans="2:4" x14ac:dyDescent="0.3">
@@ -19158,7 +19160,7 @@
         <v>88</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>1314</v>
+        <v>1286</v>
       </c>
     </row>
     <row ht="43.2" r="172" spans="2:4" x14ac:dyDescent="0.3">
@@ -19169,7 +19171,7 @@
         <v>89</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1307</v>
+        <v>1279</v>
       </c>
     </row>
     <row ht="43.2" r="173" spans="2:4" x14ac:dyDescent="0.3">
@@ -19180,7 +19182,7 @@
         <v>90</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1308</v>
+        <v>1280</v>
       </c>
     </row>
     <row ht="43.2" r="174" spans="2:4" x14ac:dyDescent="0.3">
@@ -19191,7 +19193,7 @@
         <v>91</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1309</v>
+        <v>1281</v>
       </c>
     </row>
     <row ht="28.8" r="175" spans="2:4" x14ac:dyDescent="0.3">
@@ -20131,14 +20133,2799 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD9BD9D-093A-4B81-B3AB-BC0F137492FC}">
+  <dimension ref="B1:H376"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B102" xSplit="1" ySplit="3"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1"/>
+      <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
+      <selection activeCell="E20" pane="bottomRight" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="5.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="34.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="36.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="39.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="24" r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="31.8" r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.4" r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row customHeight="1" ht="51.75" r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row customHeight="1" ht="52.5" r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row customHeight="1" ht="48" r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row customHeight="1" ht="18.600000000000001" r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row customHeight="1" ht="18.600000000000001" r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.600000000000001" r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.600000000000001" r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.600000000000001" r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.600000000000001" r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="62.4" r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.8" r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="33" r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.2" r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row customHeight="1" ht="22.2" r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row customHeight="1" ht="40.799999999999997" r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row customHeight="1" ht="51" r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row customHeight="1" ht="51" r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row ht="28.8" r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="145.19999999999999" r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row ht="129.6" r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="31"/>
+    </row>
+    <row customHeight="1" ht="25.8" r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row customHeight="1" ht="20.399999999999999" r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row customHeight="1" ht="54" r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="31"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row customHeight="1" ht="24.6" r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24.6" r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7500</v>
+      </c>
+      <c r="F50" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G50" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24.6" r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row customHeight="1" ht="100.2" r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row customHeight="1" ht="24.6" r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.799999999999997" r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row customHeight="1" ht="138.6" r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row customHeight="1" ht="40.799999999999997" r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.799999999999997" r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E57" s="1">
+        <v>28</v>
+      </c>
+      <c r="F57" s="1">
+        <v>28</v>
+      </c>
+      <c r="G57" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.799999999999997" r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="1">
+        <v>390000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>390000</v>
+      </c>
+      <c r="G58" s="2">
+        <v>390000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.799999999999997" r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row ht="28.8" r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.4" r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row customHeight="1" ht="24" r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row customHeight="1" ht="24" r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E64" s="1">
+        <v>220</v>
+      </c>
+      <c r="F64" s="1">
+        <v>220</v>
+      </c>
+      <c r="G64" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="37.200000000000003" r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row customHeight="1" ht="27" r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row customHeight="1" ht="27" r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E67" s="1">
+        <v>270</v>
+      </c>
+      <c r="F67" s="1">
+        <v>270</v>
+      </c>
+      <c r="G67" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39" r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row customHeight="1" ht="27.6" r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row customHeight="1" ht="27.6" r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row customHeight="1" ht="27.6" r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row customHeight="1" ht="27.6" r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="1">
+        <v>8500</v>
+      </c>
+      <c r="F73" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G73" s="2">
+        <v>8500</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E74" s="1">
+        <v>30</v>
+      </c>
+      <c r="F74" s="1">
+        <v>30</v>
+      </c>
+      <c r="G74" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E75" s="1">
+        <v>110000</v>
+      </c>
+      <c r="F75" s="1">
+        <v>110000</v>
+      </c>
+      <c r="G75" s="2">
+        <v>110000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="48" r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row customHeight="1" ht="21.6" r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row customHeight="1" ht="21.6" r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row customHeight="1" ht="89.4" r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row customHeight="1" ht="21.6" r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.6" r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F81" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G81" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.6" r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E82" s="1">
+        <v>30</v>
+      </c>
+      <c r="F82" s="1">
+        <v>30</v>
+      </c>
+      <c r="G82" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.6" r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E83" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F83" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G83" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.200000000000003" r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row ht="28.8" r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row ht="28.8" r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row ht="28.8" r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row ht="28.8" r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row ht="28.8" r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row ht="28.8" r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row ht="28.8" r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row ht="28.8" r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="31"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="2"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="2"/>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127" s="2"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" s="2"/>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" s="2"/>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137" s="2"/>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138" s="2"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B139" s="2"/>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140" s="2"/>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141" s="2"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B142" s="2"/>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" s="2"/>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144" s="2"/>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="2"/>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146" s="2"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B147" s="2"/>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B148" s="2"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="2"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150" s="2"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152" s="2"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153" s="2"/>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154" s="2"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155" s="2"/>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B156" s="2"/>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B157" s="2"/>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="2"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B160" s="2"/>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161" s="2"/>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162" s="2"/>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="2"/>
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164" s="2"/>
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B165" s="2"/>
+      <c r="D165" s="2"/>
+    </row>
+    <row customHeight="1" ht="18" r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166" s="2"/>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B167" s="2"/>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B168" s="2"/>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B169" s="2"/>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B170" s="2"/>
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B171" s="2"/>
+      <c r="D171" s="2"/>
+    </row>
+    <row customHeight="1" ht="18" r="172" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="2"/>
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="2"/>
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B174" s="2"/>
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B175" s="2"/>
+      <c r="D175" s="2"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B176" s="2"/>
+      <c r="D176" s="2"/>
+    </row>
+    <row customHeight="1" ht="21" r="177" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B177" s="2"/>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B178" s="2"/>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B179" s="2"/>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B181" s="2"/>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B182" s="2"/>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B183" s="2"/>
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B184" s="2"/>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="2"/>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B186" s="2"/>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B187" s="2"/>
+      <c r="D187" s="2"/>
+    </row>
+    <row customHeight="1" ht="90.75" r="188" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B188" s="2"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B189" s="2"/>
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B190" s="2"/>
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B191" s="2"/>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B192" s="2"/>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193" s="2"/>
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B194" s="2"/>
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B195" s="2"/>
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196" s="2"/>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B197" s="2"/>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198" s="2"/>
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B199" s="2"/>
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200" s="2"/>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B201" s="2"/>
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B202" s="2"/>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B203" s="2"/>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B204" s="2"/>
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B205" s="2"/>
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B206" s="2"/>
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B207" s="2"/>
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B208" s="2"/>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B209" s="2"/>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B210" s="2"/>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B211" s="2"/>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B212" s="2"/>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B213" s="2"/>
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B214" s="2"/>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B215" s="2"/>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B216" s="2"/>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B217" s="2"/>
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B218" s="2"/>
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B220" s="2"/>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B221" s="2"/>
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B222" s="2"/>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B223" s="2"/>
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B224" s="2"/>
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B225" s="2"/>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B226" s="2"/>
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="2"/>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B228" s="2"/>
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B229" s="2"/>
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B230" s="2"/>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B231" s="2"/>
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B232" s="2"/>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="2"/>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B234" s="2"/>
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B235" s="2"/>
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B236" s="2"/>
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B237" s="2"/>
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B238" s="2"/>
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B239" s="2"/>
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B240" s="2"/>
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B241" s="2"/>
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B242" s="2"/>
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B243" s="2"/>
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B244" s="2"/>
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B245" s="2"/>
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B246" s="2"/>
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B247" s="2"/>
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B248" s="2"/>
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B249" s="2"/>
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B250" s="2"/>
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B251" s="2"/>
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B252" s="2"/>
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B253" s="2"/>
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B254" s="2"/>
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B255" s="2"/>
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B256" s="2"/>
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B257" s="2"/>
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B258" s="2"/>
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="F259" s="6"/>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B260" s="2"/>
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="F261" s="15"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B262" s="2"/>
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B263" s="2"/>
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B264" s="2"/>
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B265" s="2"/>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B266" s="2"/>
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B267" s="2"/>
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B268" s="2"/>
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B269" s="2"/>
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B270" s="2"/>
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B271" s="2"/>
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B272" s="2"/>
+      <c r="D272" s="2"/>
+    </row>
+    <row customHeight="1" ht="54.75" r="273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B273" s="2"/>
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B274" s="2"/>
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B275" s="2"/>
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B276" s="2"/>
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B277" s="2"/>
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B278" s="2"/>
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B279" s="2"/>
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B280" s="2"/>
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B281" s="2"/>
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B282" s="2"/>
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B283" s="2"/>
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B284" s="2"/>
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B285" s="2"/>
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B286" s="2"/>
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B287" s="2"/>
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B288" s="2"/>
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B289" s="2"/>
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B290" s="2"/>
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B291" s="2"/>
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B292" s="2"/>
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B293" s="2"/>
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="2"/>
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B295" s="2"/>
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B296" s="2"/>
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B297" s="2"/>
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B298" s="2"/>
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B299" s="2"/>
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B300" s="2"/>
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B301" s="2"/>
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B302" s="2"/>
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B303" s="2"/>
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B304" s="2"/>
+      <c r="D304" s="2"/>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B305" s="2"/>
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B306" s="2"/>
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="2"/>
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B308" s="2"/>
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B309" s="2"/>
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B310" s="2"/>
+      <c r="D310" s="2"/>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B311" s="2"/>
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B312" s="2"/>
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B313" s="2"/>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B314" s="2"/>
+      <c r="D314" s="2"/>
+    </row>
+    <row customHeight="1" ht="29.25" r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B315" s="2"/>
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B316" s="2"/>
+      <c r="D316" s="2"/>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B317" s="2"/>
+      <c r="D317" s="2"/>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B318" s="2"/>
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B319" s="2"/>
+      <c r="D319" s="2"/>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B320" s="2"/>
+      <c r="D320" s="2"/>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B321" s="2"/>
+      <c r="D321" s="2"/>
+      <c r="F321" s="6"/>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B322" s="2"/>
+      <c r="D322" s="2"/>
+      <c r="E322" s="5"/>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B323" s="2"/>
+      <c r="D323" s="2"/>
+    </row>
+    <row customHeight="1" ht="29.25" r="324" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B324" s="2"/>
+      <c r="D324" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="325" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B325" s="2"/>
+      <c r="D325" s="2"/>
+    </row>
+    <row customHeight="1" ht="25.5" r="326" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B326" s="2"/>
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B327" s="2"/>
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B328" s="2"/>
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B329" s="2"/>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B330" s="2"/>
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B331" s="2"/>
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B332" s="2"/>
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B333" s="2"/>
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B334" s="2"/>
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B335" s="2"/>
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B336" s="2"/>
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B337" s="2"/>
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B338" s="2"/>
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="2"/>
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340" s="2"/>
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B341" s="2"/>
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B342" s="2"/>
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B343" s="2"/>
+      <c r="D343" s="2"/>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B344" s="2"/>
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B345" s="2"/>
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B346" s="2"/>
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B347" s="2"/>
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B348" s="2"/>
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B349" s="2"/>
+      <c r="D349" s="2"/>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B350" s="2"/>
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351" s="2"/>
+      <c r="D351" s="2"/>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352" s="2"/>
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B353" s="2"/>
+      <c r="D353" s="2"/>
+      <c r="E353" s="4"/>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B354" s="2"/>
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="4"/>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B356" s="2"/>
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B357" s="2"/>
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B358" s="2"/>
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B359" s="2"/>
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B360" s="2"/>
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B361" s="2"/>
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B363" s="2"/>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B364" s="2"/>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B365" s="2"/>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B366" s="2"/>
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B367" s="2"/>
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B368" s="2"/>
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B369" s="2"/>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B370" s="2"/>
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D376" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink display="P@ssw0rd" r:id="rId1" ref="E7" xr:uid="{38F4F0C3-752D-4AB1-BFDB-A90C23C8FC01}"/>
+    <hyperlink r:id="rId2" ref="E6" xr:uid="{670C9D21-A62C-44FA-9549-DEA6E76F3625}"/>
+    <hyperlink r:id="rId3" ref="E5" xr:uid="{43F36F9F-BCDA-49EA-B553-11663D8EA3D0}"/>
+    <hyperlink display="P@ssw0rd" r:id="rId4" ref="F7" xr:uid="{5D8DD5ED-FA72-4B76-8E9E-628668FA73AB}"/>
+    <hyperlink r:id="rId5" ref="F5" xr:uid="{FA097772-8BE9-4741-9821-FB6987B5B2D5}"/>
+    <hyperlink display="P@ssw0rd" r:id="rId6" ref="G7" xr:uid="{3BD177DA-EA5A-47E9-B389-952AA1454407}"/>
+    <hyperlink r:id="rId7" ref="G5" xr:uid="{7560BE47-0EAA-48E1-AA2C-FFC1C35E779D}"/>
+    <hyperlink r:id="rId8" ref="F6" xr:uid="{5EB45AD1-E576-422F-82B4-846E6230D5CC}"/>
+    <hyperlink r:id="rId9" ref="G6" xr:uid="{08FE5D3F-D717-49BA-9970-676398E190B9}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId10" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563722C6-ECF8-4288-8DDA-C62D4F62518B}">
   <dimension ref="B1:R396"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B4" xSplit="1" ySplit="3"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="D388" pane="bottomRight" sqref="D388"/>
+      <selection activeCell="E9" pane="bottomRight" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20988,13 +23775,13 @@
         <v>561</v>
       </c>
       <c r="E53" t="s">
-        <v>1265</v>
+        <v>1306</v>
       </c>
       <c r="F53" t="s">
-        <v>1265</v>
+        <v>1306</v>
       </c>
       <c r="G53" t="s">
-        <v>1265</v>
+        <v>1306</v>
       </c>
     </row>
     <row customHeight="1" ht="39.6" r="54" spans="2:13" x14ac:dyDescent="0.3">
@@ -21008,13 +23795,13 @@
         <v>562</v>
       </c>
       <c r="E54" t="s">
-        <v>1266</v>
+        <v>1307</v>
       </c>
       <c r="F54" t="s">
-        <v>1266</v>
+        <v>1307</v>
       </c>
       <c r="G54" t="s">
-        <v>1266</v>
+        <v>1307</v>
       </c>
     </row>
     <row customHeight="1" ht="39.6" r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -21028,13 +23815,13 @@
         <v>563</v>
       </c>
       <c r="E55" t="s">
-        <v>1267</v>
+        <v>1308</v>
       </c>
       <c r="F55" t="s">
-        <v>1267</v>
+        <v>1308</v>
       </c>
       <c r="G55" t="s">
-        <v>1267</v>
+        <v>1308</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="56" spans="2:13" x14ac:dyDescent="0.3">
@@ -21048,13 +23835,13 @@
         <v>564</v>
       </c>
       <c r="E56" t="s">
-        <v>1268</v>
+        <v>1309</v>
       </c>
       <c r="F56" t="s">
-        <v>1268</v>
+        <v>1309</v>
       </c>
       <c r="G56" t="s">
-        <v>1268</v>
+        <v>1309</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -21068,13 +23855,13 @@
         <v>565</v>
       </c>
       <c r="E57" t="s">
-        <v>1269</v>
+        <v>1310</v>
       </c>
       <c r="F57" t="s">
-        <v>1269</v>
+        <v>1310</v>
       </c>
       <c r="G57" t="s">
-        <v>1269</v>
+        <v>1310</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -21088,13 +23875,13 @@
         <v>566</v>
       </c>
       <c r="E58" t="s">
-        <v>1270</v>
+        <v>1311</v>
       </c>
       <c r="F58" t="s">
-        <v>1270</v>
+        <v>1311</v>
       </c>
       <c r="G58" t="s">
-        <v>1270</v>
+        <v>1311</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -21108,13 +23895,13 @@
         <v>567</v>
       </c>
       <c r="E59" t="s">
-        <v>1271</v>
+        <v>1312</v>
       </c>
       <c r="F59" t="s">
-        <v>1271</v>
+        <v>1312</v>
       </c>
       <c r="G59" t="s">
-        <v>1271</v>
+        <v>1312</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -21148,13 +23935,13 @@
         <v>569</v>
       </c>
       <c r="E61" t="s">
-        <v>1272</v>
+        <v>1313</v>
       </c>
       <c r="F61" t="s">
-        <v>1272</v>
+        <v>1313</v>
       </c>
       <c r="G61" t="s">
-        <v>1272</v>
+        <v>1313</v>
       </c>
     </row>
     <row customHeight="1" ht="58.2" r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -21179,13 +23966,13 @@
         <v>570</v>
       </c>
       <c r="E63" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
       <c r="F63" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
       <c r="G63" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
     </row>
     <row customHeight="1" ht="26.25" r="64" spans="2:13" x14ac:dyDescent="0.3">
@@ -21199,13 +23986,13 @@
         <v>571</v>
       </c>
       <c r="E64" t="s">
-        <v>1274</v>
+        <v>1315</v>
       </c>
       <c r="F64" t="s">
-        <v>1274</v>
+        <v>1315</v>
       </c>
       <c r="G64" t="s">
-        <v>1274</v>
+        <v>1315</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="65" spans="2:7" x14ac:dyDescent="0.3">
@@ -21219,13 +24006,13 @@
         <v>572</v>
       </c>
       <c r="E65" t="s">
-        <v>1275</v>
+        <v>1316</v>
       </c>
       <c r="F65" t="s">
-        <v>1275</v>
+        <v>1316</v>
       </c>
       <c r="G65" t="s">
-        <v>1275</v>
+        <v>1316</v>
       </c>
     </row>
     <row customHeight="1" ht="38.4" r="66" spans="2:7" x14ac:dyDescent="0.3">
@@ -21239,13 +24026,13 @@
         <v>576</v>
       </c>
       <c r="E66" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
       <c r="F66" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
       <c r="G66" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
     </row>
     <row customHeight="1" ht="43.8" r="67" spans="2:7" x14ac:dyDescent="0.3">
@@ -21270,13 +24057,13 @@
         <v>573</v>
       </c>
       <c r="E68" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="F68" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="G68" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="69" spans="2:7" x14ac:dyDescent="0.3">
@@ -21290,13 +24077,13 @@
         <v>574</v>
       </c>
       <c r="E69" t="s">
-        <v>1277</v>
+        <v>1318</v>
       </c>
       <c r="F69" t="s">
-        <v>1277</v>
+        <v>1318</v>
       </c>
       <c r="G69" t="s">
-        <v>1277</v>
+        <v>1318</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="70" spans="2:7" x14ac:dyDescent="0.3">
@@ -21310,13 +24097,13 @@
         <v>575</v>
       </c>
       <c r="E70" t="s">
-        <v>1278</v>
+        <v>1319</v>
       </c>
       <c r="F70" t="s">
-        <v>1278</v>
+        <v>1319</v>
       </c>
       <c r="G70" t="s">
-        <v>1278</v>
+        <v>1319</v>
       </c>
     </row>
     <row customHeight="1" ht="40.799999999999997" r="71" spans="2:7" x14ac:dyDescent="0.3">
@@ -21330,13 +24117,13 @@
         <v>577</v>
       </c>
       <c r="E71" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="F71" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="G71" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
     </row>
     <row customHeight="1" ht="51" r="72" spans="2:7" x14ac:dyDescent="0.3">
@@ -21361,13 +24148,13 @@
         <v>578</v>
       </c>
       <c r="E73" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="F73" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="G73" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="74" spans="2:7" x14ac:dyDescent="0.3">
@@ -21381,13 +24168,13 @@
         <v>579</v>
       </c>
       <c r="E74" t="s">
-        <v>1280</v>
+        <v>1321</v>
       </c>
       <c r="F74" t="s">
-        <v>1280</v>
+        <v>1321</v>
       </c>
       <c r="G74" t="s">
-        <v>1280</v>
+        <v>1321</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="75" spans="2:7" x14ac:dyDescent="0.3">
@@ -21401,13 +24188,13 @@
         <v>580</v>
       </c>
       <c r="E75" t="s">
-        <v>1281</v>
+        <v>1322</v>
       </c>
       <c r="F75" t="s">
-        <v>1281</v>
+        <v>1322</v>
       </c>
       <c r="G75" t="s">
-        <v>1281</v>
+        <v>1322</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="76" spans="2:7" x14ac:dyDescent="0.3">
@@ -21421,13 +24208,13 @@
         <v>581</v>
       </c>
       <c r="E76" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="F76" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="G76" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
     </row>
     <row customHeight="1" ht="52.8" r="77" spans="2:7" x14ac:dyDescent="0.3">
@@ -21982,13 +24769,13 @@
         <v>642</v>
       </c>
       <c r="E123" t="s">
-        <v>1282</v>
+        <v>1323</v>
       </c>
       <c r="F123" t="s">
-        <v>1282</v>
+        <v>1323</v>
       </c>
       <c r="G123" t="s">
-        <v>1282</v>
+        <v>1323</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="124" spans="2:7" x14ac:dyDescent="0.3">
@@ -22002,13 +24789,13 @@
         <v>643</v>
       </c>
       <c r="E124" t="s">
-        <v>1283</v>
+        <v>1324</v>
       </c>
       <c r="F124" t="s">
-        <v>1283</v>
+        <v>1324</v>
       </c>
       <c r="G124" t="s">
-        <v>1283</v>
+        <v>1324</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="125" spans="2:7" x14ac:dyDescent="0.3">
@@ -22022,13 +24809,13 @@
         <v>644</v>
       </c>
       <c r="E125" t="s">
-        <v>1284</v>
+        <v>1325</v>
       </c>
       <c r="F125" t="s">
-        <v>1284</v>
+        <v>1325</v>
       </c>
       <c r="G125" t="s">
-        <v>1284</v>
+        <v>1325</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="126" spans="2:7" x14ac:dyDescent="0.3">
@@ -22042,13 +24829,13 @@
         <v>645</v>
       </c>
       <c r="E126" t="s">
-        <v>1285</v>
+        <v>1326</v>
       </c>
       <c r="F126" t="s">
-        <v>1285</v>
+        <v>1326</v>
       </c>
       <c r="G126" t="s">
-        <v>1285</v>
+        <v>1326</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="127" spans="2:7" x14ac:dyDescent="0.3">
@@ -22062,13 +24849,13 @@
         <v>646</v>
       </c>
       <c r="E127" t="s">
-        <v>1286</v>
+        <v>1327</v>
       </c>
       <c r="F127" t="s">
-        <v>1286</v>
+        <v>1327</v>
       </c>
       <c r="G127" t="s">
-        <v>1286</v>
+        <v>1327</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="128" spans="2:7" x14ac:dyDescent="0.3">
@@ -22082,13 +24869,13 @@
         <v>647</v>
       </c>
       <c r="E128" t="s">
-        <v>1287</v>
+        <v>1328</v>
       </c>
       <c r="F128" t="s">
-        <v>1287</v>
+        <v>1328</v>
       </c>
       <c r="G128" t="s">
-        <v>1287</v>
+        <v>1328</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="129" spans="2:13" x14ac:dyDescent="0.3">
@@ -22102,13 +24889,13 @@
         <v>648</v>
       </c>
       <c r="E129" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="F129" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="G129" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="130" spans="2:13" x14ac:dyDescent="0.3">
@@ -22122,13 +24909,13 @@
         <v>649</v>
       </c>
       <c r="E130" t="s">
-        <v>1288</v>
+        <v>1329</v>
       </c>
       <c r="F130" t="s">
-        <v>1288</v>
+        <v>1329</v>
       </c>
       <c r="G130" t="s">
-        <v>1288</v>
+        <v>1329</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="131" spans="2:13" x14ac:dyDescent="0.3">
@@ -22142,13 +24929,13 @@
         <v>674</v>
       </c>
       <c r="E131" t="s">
-        <v>1289</v>
+        <v>1330</v>
       </c>
       <c r="F131" t="s">
-        <v>1289</v>
+        <v>1334</v>
       </c>
       <c r="G131" t="s">
-        <v>1289</v>
+        <v>1330</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="132" spans="2:13" x14ac:dyDescent="0.3">
@@ -22162,13 +24949,13 @@
         <v>650</v>
       </c>
       <c r="E132" t="s">
-        <v>1290</v>
+        <v>1331</v>
       </c>
       <c r="F132" t="s">
-        <v>1290</v>
+        <v>1331</v>
       </c>
       <c r="G132" t="s">
-        <v>1290</v>
+        <v>1331</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="133" spans="2:13" x14ac:dyDescent="0.3">
@@ -22182,13 +24969,13 @@
         <v>651</v>
       </c>
       <c r="E133" t="s">
-        <v>1291</v>
+        <v>1332</v>
       </c>
       <c r="F133" t="s">
-        <v>1291</v>
+        <v>1332</v>
       </c>
       <c r="G133" t="s">
-        <v>1291</v>
+        <v>1332</v>
       </c>
     </row>
     <row customHeight="1" ht="56.4" r="134" spans="2:13" x14ac:dyDescent="0.3">
@@ -22213,13 +25000,13 @@
         <v>678</v>
       </c>
       <c r="E135" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="F135" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="G135" t="s">
-        <v>1292</v>
+        <v>1333</v>
       </c>
       <c r="M135" s="34"/>
     </row>
@@ -22245,13 +25032,13 @@
         <v>680</v>
       </c>
       <c r="E137" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="F137" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="G137" t="s">
-        <v>1292</v>
+        <v>1333</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="138" spans="2:13" x14ac:dyDescent="0.3">
@@ -25977,2789 +28764,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD9BD9D-093A-4B81-B3AB-BC0F137492FC}">
-  <dimension ref="B1:H376"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B10" xSplit="1" ySplit="3"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1"/>
-      <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="E20" pane="bottomRight" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="34.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="36.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="39.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="32.0" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="24" r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>887</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="31.8" r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="32.4" r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row customHeight="1" ht="51.75" r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row customHeight="1" ht="52.5" r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row customHeight="1" ht="48" r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row customHeight="1" ht="18.600000000000001" r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row customHeight="1" ht="18.600000000000001" r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.600000000000001" r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.600000000000001" r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.600000000000001" r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.600000000000001" r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="62.4" r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="22.8" r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="33" r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.2" r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row customHeight="1" ht="22.2" r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row customHeight="1" ht="40.799999999999997" r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row customHeight="1" ht="51" r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row customHeight="1" ht="51" r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row ht="28.8" r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="145.19999999999999" r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row ht="129.6" r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row customHeight="1" ht="25.8" r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row customHeight="1" ht="20.399999999999999" r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row customHeight="1" ht="54" r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="31"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row customHeight="1" ht="24.6" r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24.6" r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7500</v>
-      </c>
-      <c r="F50" s="1">
-        <v>7500</v>
-      </c>
-      <c r="G50" s="2">
-        <v>7500</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24.6" r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row customHeight="1" ht="100.2" r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row customHeight="1" ht="24.6" r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.799999999999997" r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row customHeight="1" ht="138.6" r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row customHeight="1" ht="40.799999999999997" r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.799999999999997" r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E57" s="1">
-        <v>28</v>
-      </c>
-      <c r="F57" s="1">
-        <v>28</v>
-      </c>
-      <c r="G57" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.799999999999997" r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E58" s="1">
-        <v>390000</v>
-      </c>
-      <c r="F58" s="1">
-        <v>390000</v>
-      </c>
-      <c r="G58" s="2">
-        <v>390000</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.799999999999997" r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row ht="28.8" r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="38.4" r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row customHeight="1" ht="24" r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row customHeight="1" ht="24" r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E64" s="1">
-        <v>220</v>
-      </c>
-      <c r="F64" s="1">
-        <v>220</v>
-      </c>
-      <c r="G64" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="37.200000000000003" r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row customHeight="1" ht="27" r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row customHeight="1" ht="27" r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E67" s="1">
-        <v>270</v>
-      </c>
-      <c r="F67" s="1">
-        <v>270</v>
-      </c>
-      <c r="G67" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="39" r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row customHeight="1" ht="27.6" r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row customHeight="1" ht="27.6" r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row customHeight="1" ht="27.6" r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row customHeight="1" ht="27.6" r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="1">
-        <v>8500</v>
-      </c>
-      <c r="F73" s="1">
-        <v>8500</v>
-      </c>
-      <c r="G73" s="2">
-        <v>8500</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E74" s="1">
-        <v>30</v>
-      </c>
-      <c r="F74" s="1">
-        <v>30</v>
-      </c>
-      <c r="G74" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E75" s="1">
-        <v>110000</v>
-      </c>
-      <c r="F75" s="1">
-        <v>110000</v>
-      </c>
-      <c r="G75" s="2">
-        <v>110000</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="48" r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row customHeight="1" ht="21.6" r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row customHeight="1" ht="21.6" r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row customHeight="1" ht="89.4" r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row customHeight="1" ht="21.6" r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.6" r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E81" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F81" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G81" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.6" r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E82" s="1">
-        <v>30</v>
-      </c>
-      <c r="F82" s="1">
-        <v>30</v>
-      </c>
-      <c r="G82" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.6" r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E83" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F83" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G83" s="2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.200000000000003" r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row ht="28.8" r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row ht="28.8" r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row ht="28.8" r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row ht="28.8" r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21" r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row ht="28.8" r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row ht="28.8" r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row ht="28.8" r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F103" s="1"/>
-    </row>
-    <row ht="28.8" r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="31"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="5"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="5"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="5"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B159" s="2"/>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row customHeight="1" ht="18" r="166" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B168" s="2"/>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B169" s="2"/>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B170" s="2"/>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B171" s="2"/>
-      <c r="D171" s="2"/>
-    </row>
-    <row customHeight="1" ht="18" r="172" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B172" s="2"/>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B173" s="2"/>
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B174" s="2"/>
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B175" s="2"/>
-      <c r="D175" s="2"/>
-    </row>
-    <row customHeight="1" ht="18.75" r="176" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B176" s="2"/>
-      <c r="D176" s="2"/>
-    </row>
-    <row customHeight="1" ht="21" r="177" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B177" s="2"/>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B178" s="2"/>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B179" s="2"/>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B181" s="2"/>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B182" s="2"/>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B184" s="2"/>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B186" s="2"/>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B187" s="2"/>
-      <c r="D187" s="2"/>
-    </row>
-    <row customHeight="1" ht="90.75" r="188" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B188" s="2"/>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B189" s="2"/>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B190" s="2"/>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B191" s="2"/>
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B192" s="2"/>
-      <c r="D192" s="2"/>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B193" s="2"/>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B194" s="2"/>
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B195" s="2"/>
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B196" s="2"/>
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B197" s="2"/>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B198" s="2"/>
-      <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B199" s="2"/>
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B200" s="2"/>
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B201" s="2"/>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B202" s="2"/>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B203" s="2"/>
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B204" s="2"/>
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B205" s="2"/>
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B206" s="2"/>
-      <c r="D206" s="2"/>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B207" s="2"/>
-      <c r="D207" s="2"/>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B208" s="2"/>
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="2"/>
-      <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="2"/>
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="2"/>
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="2"/>
-      <c r="D212" s="2"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B213" s="2"/>
-      <c r="D213" s="2"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B214" s="2"/>
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B215" s="2"/>
-      <c r="D215" s="2"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B216" s="2"/>
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B217" s="2"/>
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B218" s="2"/>
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B220" s="2"/>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B221" s="2"/>
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B222" s="2"/>
-      <c r="D222" s="2"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B223" s="2"/>
-      <c r="D223" s="2"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B224" s="2"/>
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B225" s="2"/>
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B226" s="2"/>
-      <c r="D226" s="2"/>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B227" s="2"/>
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B228" s="2"/>
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B229" s="2"/>
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B230" s="2"/>
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B231" s="2"/>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B232" s="2"/>
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B233" s="2"/>
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B234" s="2"/>
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B235" s="2"/>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B236" s="2"/>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B237" s="2"/>
-      <c r="D237" s="2"/>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B238" s="2"/>
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B239" s="2"/>
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B240" s="2"/>
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B241" s="2"/>
-      <c r="D241" s="2"/>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B242" s="2"/>
-      <c r="D242" s="2"/>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B243" s="2"/>
-      <c r="D243" s="2"/>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B244" s="2"/>
-      <c r="D244" s="2"/>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B245" s="2"/>
-      <c r="D245" s="2"/>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B246" s="2"/>
-      <c r="D246" s="2"/>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B247" s="2"/>
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B248" s="2"/>
-      <c r="D248" s="2"/>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B249" s="2"/>
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B250" s="2"/>
-      <c r="D250" s="2"/>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B251" s="2"/>
-      <c r="D251" s="2"/>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B252" s="2"/>
-      <c r="D252" s="2"/>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B253" s="2"/>
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B254" s="2"/>
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B255" s="2"/>
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B256" s="2"/>
-      <c r="D256" s="2"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B257" s="2"/>
-      <c r="D257" s="2"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B258" s="2"/>
-      <c r="D258" s="2"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="F259" s="6"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B260" s="2"/>
-      <c r="D260" s="2"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="F261" s="15"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B262" s="2"/>
-      <c r="D262" s="2"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B263" s="2"/>
-      <c r="D263" s="2"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B264" s="2"/>
-      <c r="D264" s="2"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B265" s="2"/>
-      <c r="D265" s="2"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B266" s="2"/>
-      <c r="D266" s="2"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B267" s="2"/>
-      <c r="D267" s="2"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B268" s="2"/>
-      <c r="D268" s="2"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B269" s="2"/>
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B270" s="2"/>
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B271" s="2"/>
-      <c r="D271" s="2"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B272" s="2"/>
-      <c r="D272" s="2"/>
-    </row>
-    <row customHeight="1" ht="54.75" r="273" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B273" s="2"/>
-      <c r="D273" s="2"/>
-    </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B274" s="2"/>
-      <c r="D274" s="2"/>
-    </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B275" s="2"/>
-      <c r="D275" s="2"/>
-    </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B276" s="2"/>
-      <c r="D276" s="2"/>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B277" s="2"/>
-      <c r="D277" s="2"/>
-    </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B278" s="2"/>
-      <c r="D278" s="2"/>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B279" s="2"/>
-      <c r="D279" s="2"/>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B280" s="2"/>
-      <c r="D280" s="2"/>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B281" s="2"/>
-      <c r="D281" s="2"/>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B282" s="2"/>
-      <c r="D282" s="2"/>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B283" s="2"/>
-      <c r="D283" s="2"/>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B284" s="2"/>
-      <c r="D284" s="2"/>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B285" s="2"/>
-      <c r="D285" s="2"/>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B286" s="2"/>
-      <c r="D286" s="2"/>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B287" s="2"/>
-      <c r="D287" s="2"/>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B288" s="2"/>
-      <c r="D288" s="2"/>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B289" s="2"/>
-      <c r="D289" s="2"/>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B290" s="2"/>
-      <c r="D290" s="2"/>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B291" s="2"/>
-      <c r="D291" s="2"/>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B292" s="2"/>
-      <c r="D292" s="2"/>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B293" s="2"/>
-      <c r="D293" s="2"/>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B294" s="2"/>
-      <c r="D294" s="2"/>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B295" s="2"/>
-      <c r="D295" s="2"/>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B296" s="2"/>
-      <c r="D296" s="2"/>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B297" s="2"/>
-      <c r="D297" s="2"/>
-    </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B298" s="2"/>
-      <c r="D298" s="2"/>
-    </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B299" s="2"/>
-      <c r="D299" s="2"/>
-    </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B300" s="2"/>
-      <c r="D300" s="2"/>
-    </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B301" s="2"/>
-      <c r="D301" s="2"/>
-    </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B302" s="2"/>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B303" s="2"/>
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B304" s="2"/>
-      <c r="D304" s="2"/>
-    </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B305" s="2"/>
-      <c r="D305" s="2"/>
-    </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B306" s="2"/>
-      <c r="D306" s="2"/>
-    </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B307" s="2"/>
-      <c r="D307" s="2"/>
-    </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B308" s="2"/>
-      <c r="D308" s="2"/>
-    </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B309" s="2"/>
-      <c r="D309" s="2"/>
-    </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B310" s="2"/>
-      <c r="D310" s="2"/>
-    </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B311" s="2"/>
-      <c r="D311" s="2"/>
-    </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B312" s="2"/>
-      <c r="D312" s="2"/>
-    </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B313" s="2"/>
-      <c r="D313" s="2"/>
-    </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B314" s="2"/>
-      <c r="D314" s="2"/>
-    </row>
-    <row customHeight="1" ht="29.25" r="315" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B315" s="2"/>
-      <c r="D315" s="2"/>
-    </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B316" s="2"/>
-      <c r="D316" s="2"/>
-    </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B317" s="2"/>
-      <c r="D317" s="2"/>
-    </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B318" s="2"/>
-      <c r="D318" s="2"/>
-    </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B319" s="2"/>
-      <c r="D319" s="2"/>
-    </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B320" s="2"/>
-      <c r="D320" s="2"/>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B321" s="2"/>
-      <c r="D321" s="2"/>
-      <c r="F321" s="6"/>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="5"/>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B323" s="2"/>
-      <c r="D323" s="2"/>
-    </row>
-    <row customHeight="1" ht="29.25" r="324" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B324" s="2"/>
-      <c r="D324" s="2"/>
-    </row>
-    <row customHeight="1" ht="32.25" r="325" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B325" s="2"/>
-      <c r="D325" s="2"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="326" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B326" s="2"/>
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B327" s="2"/>
-      <c r="D327" s="2"/>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B328" s="2"/>
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B329" s="2"/>
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B330" s="2"/>
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B331" s="2"/>
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B332" s="2"/>
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B333" s="2"/>
-      <c r="D333" s="2"/>
-    </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B334" s="2"/>
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B335" s="2"/>
-      <c r="D335" s="2"/>
-    </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B336" s="2"/>
-      <c r="D336" s="2"/>
-    </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B337" s="2"/>
-      <c r="D337" s="2"/>
-    </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B338" s="2"/>
-      <c r="D338" s="2"/>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B339" s="2"/>
-      <c r="D339" s="2"/>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B340" s="2"/>
-      <c r="D340" s="2"/>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B341" s="2"/>
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B342" s="2"/>
-      <c r="D342" s="2"/>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B343" s="2"/>
-      <c r="D343" s="2"/>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B344" s="2"/>
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B345" s="2"/>
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B346" s="2"/>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B347" s="2"/>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B348" s="2"/>
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B349" s="2"/>
-      <c r="D349" s="2"/>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B350" s="2"/>
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B351" s="2"/>
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B352" s="2"/>
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="4"/>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B354" s="2"/>
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B355" s="2"/>
-      <c r="D355" s="2"/>
-      <c r="E355" s="4"/>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B356" s="2"/>
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B357" s="2"/>
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B358" s="2"/>
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B359" s="2"/>
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B360" s="2"/>
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B361" s="2"/>
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B363" s="2"/>
-      <c r="D363" s="2"/>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B364" s="2"/>
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B365" s="2"/>
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B366" s="2"/>
-      <c r="D366" s="2"/>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B367" s="2"/>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B368" s="2"/>
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B369" s="2"/>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B370" s="2"/>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D376" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink display="P@ssw0rd" r:id="rId1" ref="E7" xr:uid="{38F4F0C3-752D-4AB1-BFDB-A90C23C8FC01}"/>
-    <hyperlink r:id="rId2" ref="E6" xr:uid="{670C9D21-A62C-44FA-9549-DEA6E76F3625}"/>
-    <hyperlink r:id="rId3" ref="E5" xr:uid="{43F36F9F-BCDA-49EA-B553-11663D8EA3D0}"/>
-    <hyperlink display="P@ssw0rd" r:id="rId4" ref="F7" xr:uid="{5D8DD5ED-FA72-4B76-8E9E-628668FA73AB}"/>
-    <hyperlink r:id="rId5" ref="F5" xr:uid="{FA097772-8BE9-4741-9821-FB6987B5B2D5}"/>
-    <hyperlink display="P@ssw0rd" r:id="rId6" ref="G7" xr:uid="{3BD177DA-EA5A-47E9-B389-952AA1454407}"/>
-    <hyperlink r:id="rId7" ref="G5" xr:uid="{7560BE47-0EAA-48E1-AA2C-FFC1C35E779D}"/>
-    <hyperlink r:id="rId8" ref="F6" xr:uid="{5EB45AD1-E576-422F-82B4-846E6230D5CC}"/>
-    <hyperlink r:id="rId9" ref="G6" xr:uid="{08FE5D3F-D717-49BA-9970-676398E190B9}"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId10" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/Resources/VF_Buyer_Quote_Creation.xlsx
+++ b/Resources/VF_Buyer_Quote_Creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\workspace\VF_Hybrid\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C8950E72-1CBA-433D-9DCC-170B5877D575}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2B2DAE2B-D2BD-4CEC-9894-F229D7042C6D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="3" tabRatio="924" windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{9831F71E-EE01-4F26-B61E-B641A39E7885}" yWindow="-108"/>
+    <workbookView activeTab="5" tabRatio="924" windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{9831F71E-EE01-4F26-B61E-B641A39E7885}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="VF_LTL_MF_Quote_Creation_Buyer" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1333">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -7503,6 +7503,78 @@
     <t>Truck Pump Rate</t>
   </si>
   <si>
+    <t>217.52</t>
+  </si>
+  <si>
+    <t>105.11</t>
+  </si>
+  <si>
+    <t>0.5650</t>
+  </si>
+  <si>
+    <t>0.4550</t>
+  </si>
+  <si>
+    <t>56,500.00</t>
+  </si>
+  <si>
+    <t>27,300.00</t>
+  </si>
+  <si>
+    <t>322.31</t>
+  </si>
+  <si>
+    <t>0.5238</t>
+  </si>
+  <si>
+    <t>83800.00</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>17.53</t>
+  </si>
+  <si>
+    <t>07/30/2020</t>
+  </si>
+  <si>
+    <t>06/29/2020</t>
+  </si>
+  <si>
+    <t>184.60</t>
+  </si>
+  <si>
+    <t>80.01</t>
+  </si>
+  <si>
+    <t>7.3838</t>
+  </si>
+  <si>
+    <t>7.2738</t>
+  </si>
+  <si>
+    <t>738,375.00</t>
+  </si>
+  <si>
+    <t>436,425.00</t>
+  </si>
+  <si>
+    <t>205.56</t>
+  </si>
+  <si>
+    <t>7.3425</t>
+  </si>
+  <si>
+    <t>1174800.00</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1,174,800.00</t>
+  </si>
+  <si>
     <t>0.0287</t>
   </si>
   <si>
@@ -7584,88 +7656,10 @@
     <t>951 miles in 17 hour(s) 24 minute(s)</t>
   </si>
   <si>
+    <t>1900</t>
+  </si>
+  <si>
     <t>15,625.06</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>217.52</t>
-  </si>
-  <si>
-    <t>105.11</t>
-  </si>
-  <si>
-    <t>0.5650</t>
-  </si>
-  <si>
-    <t>0.4550</t>
-  </si>
-  <si>
-    <t>56,500.00</t>
-  </si>
-  <si>
-    <t>27,300.00</t>
-  </si>
-  <si>
-    <t>322.31</t>
-  </si>
-  <si>
-    <t>0.5238</t>
-  </si>
-  <si>
-    <t>83800.00</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>17.53</t>
-  </si>
-  <si>
-    <t>07/30/2020</t>
-  </si>
-  <si>
-    <t>06/29/2020</t>
-  </si>
-  <si>
-    <t>180.90</t>
-  </si>
-  <si>
-    <t>76.37</t>
-  </si>
-  <si>
-    <t>7.3838</t>
-  </si>
-  <si>
-    <t>7.2738</t>
-  </si>
-  <si>
-    <t>738,375.00</t>
-  </si>
-  <si>
-    <t>436,425.00</t>
-  </si>
-  <si>
-    <t>205.56</t>
-  </si>
-  <si>
-    <t>7.3425</t>
-  </si>
-  <si>
-    <t>1174800.00</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>184.60</t>
-  </si>
-  <si>
-    <t>80.01</t>
-  </si>
-  <si>
-    <t>1,174,800.00</t>
   </si>
 </sst>
 </file>
@@ -7819,7 +7813,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -7921,7 +7915,6 @@
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8526,13 +8519,13 @@
         <v>226</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -8547,13 +8540,13 @@
         <v>179</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -11641,10 +11634,10 @@
         <v>1199</v>
       </c>
       <c r="E37" t="s">
-        <v>1309</v>
+        <v>1280</v>
       </c>
       <c r="F37" t="s">
-        <v>1309</v>
+        <v>1280</v>
       </c>
       <c r="G37"/>
       <c r="J37" s="2"/>
@@ -11660,10 +11653,10 @@
         <v>1200</v>
       </c>
       <c r="E38" t="s">
-        <v>1310</v>
+        <v>1281</v>
       </c>
       <c r="F38" t="s">
-        <v>1310</v>
+        <v>1281</v>
       </c>
       <c r="G38"/>
       <c r="J38" s="2"/>
@@ -11679,10 +11672,10 @@
         <v>1201</v>
       </c>
       <c r="E39" t="s">
-        <v>1311</v>
+        <v>1282</v>
       </c>
       <c r="F39" t="s">
-        <v>1311</v>
+        <v>1282</v>
       </c>
       <c r="G39"/>
       <c r="J39" s="2"/>
@@ -11698,10 +11691,10 @@
         <v>1202</v>
       </c>
       <c r="E40" t="s">
-        <v>1312</v>
+        <v>1283</v>
       </c>
       <c r="F40" t="s">
-        <v>1312</v>
+        <v>1283</v>
       </c>
       <c r="G40"/>
       <c r="J40" s="2"/>
@@ -11717,10 +11710,10 @@
         <v>1203</v>
       </c>
       <c r="E41" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="G41"/>
       <c r="J41" s="2"/>
@@ -11736,10 +11729,10 @@
         <v>1204</v>
       </c>
       <c r="E42" t="s">
-        <v>1314</v>
+        <v>1285</v>
       </c>
       <c r="F42" t="s">
-        <v>1314</v>
+        <v>1285</v>
       </c>
       <c r="G42"/>
       <c r="J42" s="2"/>
@@ -11878,10 +11871,10 @@
         <v>1212</v>
       </c>
       <c r="E52" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="F52" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="G52"/>
       <c r="J52" s="2"/>
@@ -11920,10 +11913,10 @@
         <v>1216</v>
       </c>
       <c r="E55" t="s">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="F55" t="s">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="G55"/>
       <c r="J55" s="2"/>
@@ -11967,10 +11960,10 @@
         <v>1217</v>
       </c>
       <c r="E58" t="s">
-        <v>1317</v>
+        <v>1288</v>
       </c>
       <c r="F58" t="s">
-        <v>1317</v>
+        <v>1288</v>
       </c>
       <c r="G58"/>
       <c r="J58" s="2"/>
@@ -12057,10 +12050,10 @@
         <v>1233</v>
       </c>
       <c r="E63" t="s">
-        <v>1318</v>
+        <v>1289</v>
       </c>
       <c r="F63" t="s">
-        <v>1318</v>
+        <v>1289</v>
       </c>
       <c r="G63"/>
       <c r="J63" s="2"/>
@@ -12095,10 +12088,10 @@
         <v>1235</v>
       </c>
       <c r="E65" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="F65" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="G65"/>
       <c r="J65" s="2"/>
@@ -12114,10 +12107,10 @@
         <v>1236</v>
       </c>
       <c r="E66" t="s">
-        <v>1319</v>
+        <v>1290</v>
       </c>
       <c r="F66" t="s">
-        <v>1319</v>
+        <v>1290</v>
       </c>
       <c r="G66"/>
       <c r="J66" s="2"/>
@@ -12175,10 +12168,10 @@
         <v>1223</v>
       </c>
       <c r="E70" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="F70" t="s">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="G70"/>
       <c r="J70" s="2"/>
@@ -12235,10 +12228,10 @@
         <v>1224</v>
       </c>
       <c r="E74" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
       <c r="F74" t="s">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="G74"/>
     </row>
@@ -14390,7 +14383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AE2419-81CB-436A-9931-64401F7E6EB4}">
   <dimension ref="B1:K334"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -14675,13 +14668,13 @@
         <v>226</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -14696,13 +14689,13 @@
         <v>179</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -16614,8 +16607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACBAE30-40A3-4AF0-B57F-9A72873CD9EC}">
   <dimension ref="B1:K398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17287,13 +17280,13 @@
         <v>1199</v>
       </c>
       <c r="E37" t="s">
-        <v>1322</v>
+        <v>1293</v>
       </c>
       <c r="F37" t="s">
-        <v>1332</v>
+        <v>1293</v>
       </c>
       <c r="G37" t="s">
-        <v>1332</v>
+        <v>1293</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -17308,13 +17301,13 @@
         <v>1200</v>
       </c>
       <c r="E38" t="s">
-        <v>1323</v>
+        <v>1294</v>
       </c>
       <c r="F38" t="s">
-        <v>1333</v>
+        <v>1294</v>
       </c>
       <c r="G38" t="s">
-        <v>1333</v>
+        <v>1294</v>
       </c>
       <c r="J38" s="2"/>
     </row>
@@ -17329,13 +17322,13 @@
         <v>1201</v>
       </c>
       <c r="E39" t="s">
-        <v>1324</v>
+        <v>1295</v>
       </c>
       <c r="F39" t="s">
-        <v>1324</v>
+        <v>1295</v>
       </c>
       <c r="G39" t="s">
-        <v>1324</v>
+        <v>1295</v>
       </c>
       <c r="J39" s="2"/>
     </row>
@@ -17350,13 +17343,13 @@
         <v>1202</v>
       </c>
       <c r="E40" t="s">
-        <v>1325</v>
+        <v>1296</v>
       </c>
       <c r="F40" t="s">
-        <v>1325</v>
+        <v>1296</v>
       </c>
       <c r="G40" t="s">
-        <v>1325</v>
+        <v>1296</v>
       </c>
       <c r="J40" s="2"/>
     </row>
@@ -17371,13 +17364,13 @@
         <v>1203</v>
       </c>
       <c r="E41" t="s">
-        <v>1326</v>
+        <v>1297</v>
       </c>
       <c r="F41" t="s">
-        <v>1326</v>
+        <v>1297</v>
       </c>
       <c r="G41" t="s">
-        <v>1326</v>
+        <v>1297</v>
       </c>
       <c r="J41" s="2"/>
     </row>
@@ -17392,13 +17385,13 @@
         <v>1204</v>
       </c>
       <c r="E42" t="s">
-        <v>1327</v>
+        <v>1298</v>
       </c>
       <c r="F42" t="s">
-        <v>1327</v>
+        <v>1298</v>
       </c>
       <c r="G42" t="s">
-        <v>1327</v>
+        <v>1298</v>
       </c>
       <c r="J42" s="2"/>
     </row>
@@ -17536,13 +17529,13 @@
         <v>1212</v>
       </c>
       <c r="E52" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="F52" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="G52" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="J52" s="2"/>
     </row>
@@ -17580,13 +17573,13 @@
         <v>1216</v>
       </c>
       <c r="E55" t="s">
-        <v>1329</v>
+        <v>1300</v>
       </c>
       <c r="F55" t="s">
-        <v>1329</v>
+        <v>1300</v>
       </c>
       <c r="G55" t="s">
-        <v>1329</v>
+        <v>1300</v>
       </c>
       <c r="J55" s="2"/>
     </row>
@@ -17629,13 +17622,13 @@
         <v>1217</v>
       </c>
       <c r="E58" t="s">
-        <v>1330</v>
+        <v>1301</v>
       </c>
       <c r="F58" t="s">
-        <v>1330</v>
+        <v>1301</v>
       </c>
       <c r="G58" t="s">
-        <v>1330</v>
+        <v>1301</v>
       </c>
       <c r="J58" s="2"/>
     </row>
@@ -17748,13 +17741,13 @@
         <v>1233</v>
       </c>
       <c r="E64" t="s">
-        <v>1331</v>
+        <v>1302</v>
       </c>
       <c r="F64" t="s">
-        <v>1331</v>
+        <v>1302</v>
       </c>
       <c r="G64" t="s">
-        <v>1331</v>
+        <v>1302</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -17790,13 +17783,13 @@
         <v>1235</v>
       </c>
       <c r="E66" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="F66" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="G66" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="J66" s="2"/>
     </row>
@@ -17881,13 +17874,13 @@
         <v>1223</v>
       </c>
       <c r="E71" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="F71" t="s">
-        <v>1329</v>
+        <v>1300</v>
       </c>
       <c r="G71" t="s">
-        <v>1334</v>
+        <v>1303</v>
       </c>
       <c r="J71" s="2"/>
     </row>
@@ -17943,13 +17936,13 @@
         <v>1224</v>
       </c>
       <c r="E75" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="F75" t="s">
-        <v>1329</v>
+        <v>1300</v>
       </c>
       <c r="G75" t="s">
-        <v>1334</v>
+        <v>1303</v>
       </c>
     </row>
     <row customHeight="1" ht="39" r="76" spans="2:10" x14ac:dyDescent="0.3">
@@ -20367,13 +20360,13 @@
         <v>226</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
     </row>
     <row customHeight="1" ht="18.600000000000001" r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -20387,13 +20380,13 @@
         <v>179</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1321</v>
+        <v>1292</v>
       </c>
     </row>
     <row customHeight="1" ht="18.600000000000001" r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -22884,11 +22877,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563722C6-ECF8-4288-8DDA-C62D4F62518B}">
   <dimension ref="B1:R396"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B124" xSplit="1" ySplit="3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B136" xSplit="1" ySplit="3"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="E10" pane="bottomRight" sqref="E10"/>
+      <selection activeCell="E145" pane="bottomRight" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23738,13 +23731,13 @@
         <v>560</v>
       </c>
       <c r="E53" t="s">
-        <v>1280</v>
+        <v>1304</v>
       </c>
       <c r="F53" t="s">
-        <v>1280</v>
+        <v>1304</v>
       </c>
       <c r="G53" t="s">
-        <v>1280</v>
+        <v>1304</v>
       </c>
     </row>
     <row customHeight="1" ht="39.6" r="54" spans="2:13" x14ac:dyDescent="0.3">
@@ -23758,13 +23751,13 @@
         <v>561</v>
       </c>
       <c r="E54" t="s">
-        <v>1281</v>
+        <v>1305</v>
       </c>
       <c r="F54" t="s">
-        <v>1281</v>
+        <v>1305</v>
       </c>
       <c r="G54" t="s">
-        <v>1281</v>
+        <v>1305</v>
       </c>
     </row>
     <row customHeight="1" ht="39.6" r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -23778,13 +23771,13 @@
         <v>562</v>
       </c>
       <c r="E55" t="s">
-        <v>1282</v>
+        <v>1306</v>
       </c>
       <c r="F55" t="s">
-        <v>1282</v>
+        <v>1306</v>
       </c>
       <c r="G55" t="s">
-        <v>1282</v>
+        <v>1306</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="56" spans="2:13" x14ac:dyDescent="0.3">
@@ -23798,13 +23791,13 @@
         <v>563</v>
       </c>
       <c r="E56" t="s">
-        <v>1283</v>
+        <v>1307</v>
       </c>
       <c r="F56" t="s">
-        <v>1283</v>
+        <v>1307</v>
       </c>
       <c r="G56" t="s">
-        <v>1283</v>
+        <v>1307</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -23818,13 +23811,13 @@
         <v>564</v>
       </c>
       <c r="E57" t="s">
-        <v>1284</v>
+        <v>1308</v>
       </c>
       <c r="F57" t="s">
-        <v>1284</v>
+        <v>1308</v>
       </c>
       <c r="G57" t="s">
-        <v>1284</v>
+        <v>1308</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -23838,13 +23831,13 @@
         <v>565</v>
       </c>
       <c r="E58" t="s">
-        <v>1285</v>
+        <v>1309</v>
       </c>
       <c r="F58" t="s">
-        <v>1285</v>
+        <v>1309</v>
       </c>
       <c r="G58" t="s">
-        <v>1285</v>
+        <v>1309</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -23858,13 +23851,13 @@
         <v>566</v>
       </c>
       <c r="E59" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
       <c r="F59" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
       <c r="G59" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -23898,13 +23891,13 @@
         <v>568</v>
       </c>
       <c r="E61" t="s">
-        <v>1287</v>
+        <v>1311</v>
       </c>
       <c r="F61" t="s">
-        <v>1287</v>
+        <v>1311</v>
       </c>
       <c r="G61" t="s">
-        <v>1287</v>
+        <v>1311</v>
       </c>
     </row>
     <row customHeight="1" ht="58.2" r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -23929,13 +23922,13 @@
         <v>569</v>
       </c>
       <c r="E63" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
       <c r="F63" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
       <c r="G63" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
     </row>
     <row customHeight="1" ht="26.25" r="64" spans="2:13" x14ac:dyDescent="0.3">
@@ -23949,13 +23942,13 @@
         <v>570</v>
       </c>
       <c r="E64" t="s">
-        <v>1289</v>
+        <v>1313</v>
       </c>
       <c r="F64" t="s">
-        <v>1289</v>
+        <v>1313</v>
       </c>
       <c r="G64" t="s">
-        <v>1289</v>
+        <v>1313</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="65" spans="2:7" x14ac:dyDescent="0.3">
@@ -23969,13 +23962,13 @@
         <v>571</v>
       </c>
       <c r="E65" t="s">
-        <v>1290</v>
+        <v>1314</v>
       </c>
       <c r="F65" t="s">
-        <v>1290</v>
+        <v>1314</v>
       </c>
       <c r="G65" t="s">
-        <v>1290</v>
+        <v>1314</v>
       </c>
     </row>
     <row customHeight="1" ht="38.4" r="66" spans="2:7" x14ac:dyDescent="0.3">
@@ -23989,13 +23982,13 @@
         <v>575</v>
       </c>
       <c r="E66" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
       <c r="F66" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
       <c r="G66" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
     </row>
     <row customHeight="1" ht="43.8" r="67" spans="2:7" x14ac:dyDescent="0.3">
@@ -24020,13 +24013,13 @@
         <v>572</v>
       </c>
       <c r="E68" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="F68" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="G68" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="69" spans="2:7" x14ac:dyDescent="0.3">
@@ -24040,13 +24033,13 @@
         <v>573</v>
       </c>
       <c r="E69" t="s">
-        <v>1292</v>
+        <v>1316</v>
       </c>
       <c r="F69" t="s">
-        <v>1292</v>
+        <v>1316</v>
       </c>
       <c r="G69" t="s">
-        <v>1292</v>
+        <v>1316</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="70" spans="2:7" x14ac:dyDescent="0.3">
@@ -24060,13 +24053,13 @@
         <v>574</v>
       </c>
       <c r="E70" t="s">
-        <v>1293</v>
+        <v>1317</v>
       </c>
       <c r="F70" t="s">
-        <v>1293</v>
+        <v>1317</v>
       </c>
       <c r="G70" t="s">
-        <v>1293</v>
+        <v>1317</v>
       </c>
     </row>
     <row customHeight="1" ht="40.799999999999997" r="71" spans="2:7" x14ac:dyDescent="0.3">
@@ -24080,13 +24073,13 @@
         <v>576</v>
       </c>
       <c r="E71" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="F71" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="G71" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
     </row>
     <row customHeight="1" ht="51" r="72" spans="2:7" x14ac:dyDescent="0.3">
@@ -24111,13 +24104,13 @@
         <v>577</v>
       </c>
       <c r="E73" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="F73" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="G73" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="74" spans="2:7" x14ac:dyDescent="0.3">
@@ -24131,13 +24124,13 @@
         <v>578</v>
       </c>
       <c r="E74" t="s">
-        <v>1295</v>
+        <v>1319</v>
       </c>
       <c r="F74" t="s">
-        <v>1295</v>
+        <v>1319</v>
       </c>
       <c r="G74" t="s">
-        <v>1295</v>
+        <v>1319</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="75" spans="2:7" x14ac:dyDescent="0.3">
@@ -24151,13 +24144,13 @@
         <v>579</v>
       </c>
       <c r="E75" t="s">
-        <v>1296</v>
+        <v>1320</v>
       </c>
       <c r="F75" t="s">
-        <v>1296</v>
+        <v>1320</v>
       </c>
       <c r="G75" t="s">
-        <v>1296</v>
+        <v>1320</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="76" spans="2:7" x14ac:dyDescent="0.3">
@@ -24171,13 +24164,13 @@
         <v>580</v>
       </c>
       <c r="E76" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="F76" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="G76" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
     </row>
     <row customHeight="1" ht="52.8" r="77" spans="2:7" x14ac:dyDescent="0.3">
@@ -24732,13 +24725,13 @@
         <v>641</v>
       </c>
       <c r="E123" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
       <c r="F123" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
       <c r="G123" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="124" spans="2:7" x14ac:dyDescent="0.3">
@@ -24752,13 +24745,13 @@
         <v>642</v>
       </c>
       <c r="E124" t="s">
-        <v>1298</v>
+        <v>1322</v>
       </c>
       <c r="F124" t="s">
-        <v>1298</v>
+        <v>1322</v>
       </c>
       <c r="G124" t="s">
-        <v>1298</v>
+        <v>1322</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="125" spans="2:7" x14ac:dyDescent="0.3">
@@ -24772,13 +24765,13 @@
         <v>643</v>
       </c>
       <c r="E125" t="s">
-        <v>1299</v>
+        <v>1323</v>
       </c>
       <c r="F125" t="s">
-        <v>1299</v>
+        <v>1323</v>
       </c>
       <c r="G125" t="s">
-        <v>1299</v>
+        <v>1323</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="126" spans="2:7" x14ac:dyDescent="0.3">
@@ -24792,13 +24785,13 @@
         <v>644</v>
       </c>
       <c r="E126" t="s">
-        <v>1300</v>
+        <v>1324</v>
       </c>
       <c r="F126" t="s">
-        <v>1300</v>
+        <v>1324</v>
       </c>
       <c r="G126" t="s">
-        <v>1300</v>
+        <v>1324</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="127" spans="2:7" x14ac:dyDescent="0.3">
@@ -24812,13 +24805,13 @@
         <v>645</v>
       </c>
       <c r="E127" t="s">
-        <v>1301</v>
+        <v>1325</v>
       </c>
       <c r="F127" t="s">
-        <v>1301</v>
+        <v>1325</v>
       </c>
       <c r="G127" t="s">
-        <v>1301</v>
+        <v>1325</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="128" spans="2:7" x14ac:dyDescent="0.3">
@@ -24832,13 +24825,13 @@
         <v>646</v>
       </c>
       <c r="E128" t="s">
-        <v>1302</v>
+        <v>1326</v>
       </c>
       <c r="F128" t="s">
-        <v>1302</v>
+        <v>1326</v>
       </c>
       <c r="G128" t="s">
-        <v>1302</v>
+        <v>1326</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="129" spans="2:13" x14ac:dyDescent="0.3">
@@ -24852,13 +24845,13 @@
         <v>647</v>
       </c>
       <c r="E129" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="F129" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="G129" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="130" spans="2:13" x14ac:dyDescent="0.3">
@@ -24872,13 +24865,13 @@
         <v>648</v>
       </c>
       <c r="E130" t="s">
-        <v>1303</v>
+        <v>1327</v>
       </c>
       <c r="F130" t="s">
-        <v>1303</v>
+        <v>1327</v>
       </c>
       <c r="G130" t="s">
-        <v>1303</v>
+        <v>1327</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="131" spans="2:13" x14ac:dyDescent="0.3">
@@ -24892,13 +24885,13 @@
         <v>673</v>
       </c>
       <c r="E131" t="s">
-        <v>1304</v>
+        <v>1328</v>
       </c>
       <c r="F131" t="s">
-        <v>1308</v>
+        <v>1328</v>
       </c>
       <c r="G131" t="s">
-        <v>1304</v>
+        <v>1331</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="132" spans="2:13" x14ac:dyDescent="0.3">
@@ -24912,13 +24905,13 @@
         <v>649</v>
       </c>
       <c r="E132" t="s">
-        <v>1305</v>
+        <v>1329</v>
       </c>
       <c r="F132" t="s">
-        <v>1305</v>
+        <v>1329</v>
       </c>
       <c r="G132" t="s">
-        <v>1305</v>
+        <v>1329</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="133" spans="2:13" x14ac:dyDescent="0.3">
@@ -24932,13 +24925,13 @@
         <v>650</v>
       </c>
       <c r="E133" t="s">
-        <v>1306</v>
+        <v>1330</v>
       </c>
       <c r="F133" t="s">
-        <v>1306</v>
+        <v>1330</v>
       </c>
       <c r="G133" t="s">
-        <v>1306</v>
+        <v>1330</v>
       </c>
     </row>
     <row customHeight="1" ht="56.4" r="134" spans="2:13" x14ac:dyDescent="0.3">
@@ -24963,13 +24956,13 @@
         <v>677</v>
       </c>
       <c r="E135" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="F135" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="G135" t="s">
-        <v>1307</v>
+        <v>1332</v>
       </c>
       <c r="M135" s="34"/>
     </row>
@@ -24995,13 +24988,13 @@
         <v>679</v>
       </c>
       <c r="E137" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="F137" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="G137" t="s">
-        <v>1307</v>
+        <v>1332</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="138" spans="2:13" x14ac:dyDescent="0.3">

--- a/Resources/VF_Buyer_Quote_Creation.xlsx
+++ b/Resources/VF_Buyer_Quote_Creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\workspace\VF_Hybrid\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2B2DAE2B-D2BD-4CEC-9894-F229D7042C6D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0AF45F4B-AC5B-4F95-A797-45443237E702}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView activeTab="5" tabRatio="924" windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{9831F71E-EE01-4F26-B61E-B641A39E7885}" yWindow="-108"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1335">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -7575,6 +7575,15 @@
     <t>1,174,800.00</t>
   </si>
   <si>
+    <t>08/30/2020</t>
+  </si>
+  <si>
+    <t>07/29/2020</t>
+  </si>
+  <si>
+    <t>Albert Oil Company Inc</t>
+  </si>
+  <si>
     <t>0.0287</t>
   </si>
   <si>
@@ -7629,7 +7638,7 @@
     <t>325.0</t>
   </si>
   <si>
-    <t>2087</t>
+    <t>2094</t>
   </si>
   <si>
     <t>45</t>
@@ -7641,22 +7650,19 @@
     <t>8500</t>
   </si>
   <si>
-    <t>2158.2</t>
-  </si>
-  <si>
-    <t>6.53</t>
-  </si>
-  <si>
-    <t>1901</t>
+    <t>2165.2</t>
+  </si>
+  <si>
+    <t>6.51</t>
+  </si>
+  <si>
+    <t>1902</t>
   </si>
   <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>951 miles in 17 hour(s) 24 minute(s)</t>
-  </si>
-  <si>
-    <t>1900</t>
+    <t>952 miles in 17 hour(s) 29 minute(s)</t>
   </si>
   <si>
     <t>15,625.06</t>
@@ -20096,7 +20102,7 @@
       <pane activePane="bottomRight" state="frozen" topLeftCell="B4" xSplit="1" ySplit="3"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="E11" pane="bottomRight" sqref="E11"/>
+      <selection activeCell="E101" pane="bottomRight" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20340,13 +20346,13 @@
         <v>178</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>890</v>
+        <v>1291</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>890</v>
+        <v>1291</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>890</v>
+        <v>1291</v>
       </c>
     </row>
     <row customHeight="1" ht="18.600000000000001" r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -20360,13 +20366,13 @@
         <v>226</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
     </row>
     <row customHeight="1" ht="18.600000000000001" r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -20380,13 +20386,13 @@
         <v>179</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
     </row>
     <row customHeight="1" ht="18.600000000000001" r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -21671,13 +21677,13 @@
         <v>224</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>264</v>
+        <v>1306</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>264</v>
+        <v>1306</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
@@ -22881,7 +22887,7 @@
       <pane activePane="bottomRight" state="frozen" topLeftCell="B136" xSplit="1" ySplit="3"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="E145" pane="bottomRight" sqref="E145"/>
+      <selection activeCell="E144" pane="bottomRight" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23731,13 +23737,13 @@
         <v>560</v>
       </c>
       <c r="E53" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="F53" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="G53" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
     </row>
     <row customHeight="1" ht="39.6" r="54" spans="2:13" x14ac:dyDescent="0.3">
@@ -23751,13 +23757,13 @@
         <v>561</v>
       </c>
       <c r="E54" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="F54" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="G54" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
     </row>
     <row customHeight="1" ht="39.6" r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -23771,13 +23777,13 @@
         <v>562</v>
       </c>
       <c r="E55" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="F55" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="G55" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="56" spans="2:13" x14ac:dyDescent="0.3">
@@ -23791,13 +23797,13 @@
         <v>563</v>
       </c>
       <c r="E56" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="F56" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="G56" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -23811,13 +23817,13 @@
         <v>564</v>
       </c>
       <c r="E57" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="F57" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="G57" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -23831,13 +23837,13 @@
         <v>565</v>
       </c>
       <c r="E58" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="F58" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="G58" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -23851,13 +23857,13 @@
         <v>566</v>
       </c>
       <c r="E59" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="F59" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="G59" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -23891,13 +23897,13 @@
         <v>568</v>
       </c>
       <c r="E61" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="F61" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="G61" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
     </row>
     <row customHeight="1" ht="58.2" r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -23922,13 +23928,13 @@
         <v>569</v>
       </c>
       <c r="E63" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="F63" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="G63" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
     </row>
     <row customHeight="1" ht="26.25" r="64" spans="2:13" x14ac:dyDescent="0.3">
@@ -23942,13 +23948,13 @@
         <v>570</v>
       </c>
       <c r="E64" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="F64" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="G64" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="65" spans="2:7" x14ac:dyDescent="0.3">
@@ -23962,13 +23968,13 @@
         <v>571</v>
       </c>
       <c r="E65" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="F65" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="G65" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
     </row>
     <row customHeight="1" ht="38.4" r="66" spans="2:7" x14ac:dyDescent="0.3">
@@ -23982,13 +23988,13 @@
         <v>575</v>
       </c>
       <c r="E66" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="F66" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="G66" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
     </row>
     <row customHeight="1" ht="43.8" r="67" spans="2:7" x14ac:dyDescent="0.3">
@@ -24013,13 +24019,13 @@
         <v>572</v>
       </c>
       <c r="E68" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="F68" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="G68" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="69" spans="2:7" x14ac:dyDescent="0.3">
@@ -24033,13 +24039,13 @@
         <v>573</v>
       </c>
       <c r="E69" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="F69" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="G69" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
     </row>
     <row customHeight="1" ht="32.4" r="70" spans="2:7" x14ac:dyDescent="0.3">
@@ -24053,13 +24059,13 @@
         <v>574</v>
       </c>
       <c r="E70" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F70" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="G70" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
     </row>
     <row customHeight="1" ht="40.799999999999997" r="71" spans="2:7" x14ac:dyDescent="0.3">
@@ -24073,13 +24079,13 @@
         <v>576</v>
       </c>
       <c r="E71" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="F71" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="G71" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
     </row>
     <row customHeight="1" ht="51" r="72" spans="2:7" x14ac:dyDescent="0.3">
@@ -24104,13 +24110,13 @@
         <v>577</v>
       </c>
       <c r="E73" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="F73" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="G73" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="74" spans="2:7" x14ac:dyDescent="0.3">
@@ -24124,13 +24130,13 @@
         <v>578</v>
       </c>
       <c r="E74" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="F74" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="G74" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="75" spans="2:7" x14ac:dyDescent="0.3">
@@ -24144,13 +24150,13 @@
         <v>579</v>
       </c>
       <c r="E75" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="F75" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="G75" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
     </row>
     <row customHeight="1" ht="34.200000000000003" r="76" spans="2:7" x14ac:dyDescent="0.3">
@@ -24164,13 +24170,13 @@
         <v>580</v>
       </c>
       <c r="E76" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="F76" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="G76" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
     </row>
     <row customHeight="1" ht="52.8" r="77" spans="2:7" x14ac:dyDescent="0.3">
@@ -24725,13 +24731,13 @@
         <v>641</v>
       </c>
       <c r="E123" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="F123" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="G123" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="124" spans="2:7" x14ac:dyDescent="0.3">
@@ -24745,13 +24751,13 @@
         <v>642</v>
       </c>
       <c r="E124" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="F124" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="G124" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="125" spans="2:7" x14ac:dyDescent="0.3">
@@ -24765,13 +24771,13 @@
         <v>643</v>
       </c>
       <c r="E125" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="F125" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="G125" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="126" spans="2:7" x14ac:dyDescent="0.3">
@@ -24785,13 +24791,13 @@
         <v>644</v>
       </c>
       <c r="E126" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="F126" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="G126" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="127" spans="2:7" x14ac:dyDescent="0.3">
@@ -24805,13 +24811,13 @@
         <v>645</v>
       </c>
       <c r="E127" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="F127" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="G127" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="128" spans="2:7" x14ac:dyDescent="0.3">
@@ -24825,13 +24831,13 @@
         <v>646</v>
       </c>
       <c r="E128" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="F128" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="G128" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="129" spans="2:13" x14ac:dyDescent="0.3">
@@ -24845,13 +24851,13 @@
         <v>647</v>
       </c>
       <c r="E129" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="F129" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="G129" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="130" spans="2:13" x14ac:dyDescent="0.3">
@@ -24865,13 +24871,13 @@
         <v>648</v>
       </c>
       <c r="E130" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="F130" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="G130" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="131" spans="2:13" x14ac:dyDescent="0.3">
@@ -24885,10 +24891,10 @@
         <v>673</v>
       </c>
       <c r="E131" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="F131" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="G131" t="s">
         <v>1331</v>
@@ -24905,13 +24911,13 @@
         <v>649</v>
       </c>
       <c r="E132" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="F132" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="G132" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
     </row>
     <row customHeight="1" ht="29.4" r="133" spans="2:13" x14ac:dyDescent="0.3">
@@ -24925,13 +24931,13 @@
         <v>650</v>
       </c>
       <c r="E133" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="F133" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="G133" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
     </row>
     <row customHeight="1" ht="56.4" r="134" spans="2:13" x14ac:dyDescent="0.3">
@@ -24956,13 +24962,13 @@
         <v>677</v>
       </c>
       <c r="E135" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="F135" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="G135" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="M135" s="34"/>
     </row>
@@ -24988,13 +24994,13 @@
         <v>679</v>
       </c>
       <c r="E137" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="F137" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="G137" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="138" spans="2:13" x14ac:dyDescent="0.3">

--- a/Resources/VF_Buyer_Quote_Creation.xlsx
+++ b/Resources/VF_Buyer_Quote_Creation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4087" uniqueCount="1335">
   <si>
     <t>TestCase_ID</t>
   </si>
